--- a/Supplemental/Spend and Transactions Pivot Tables.xlsx
+++ b/Supplemental/Spend and Transactions Pivot Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ccf779dc7355a40/Documents/Python_Projects/Fetch Rewards Assignment - Data Analyst/Fetch-Rewards-Coding-Assignment/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86EC1BD-2F7B-45B2-98A2-291D52C1CC98}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5001B693-3363-454D-A2D6-652301504578}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E62EB5EF-B05B-4D17-9C50-041E0ECA9077}"/>
   </bookViews>
@@ -20,12 +20,13 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1E22791" hidden="1">[1]Sheet1!$A$1:$E$2279</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1E22791" hidden="1">[1]Sheet1!$A$13:$A$14</definedName>
+    <definedName name="_xlcn.WorksheetConnection_SpendandTransactionsDatasetA1C1681" hidden="1">'Spend and Transactions Dataset'!$A$1:$C$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId4"/>
-    <pivotCache cacheId="62" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +36,7 @@
       <x15:dataModel>
         <x15:modelTables>
           <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet1!$A$1:$E$2279"/>
+          <x15:modelTable id="Range 1" name="Range 1" connection="WorksheetConnection_Spend and Transactions Dataset!$A$1:$C$168"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -55,7 +57,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CBBDBD24-2CA3-403C-867B-7B568A848619}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{BA9FBCF6-2E76-4DC3-90A0-398A9B3B07F6}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -73,11 +75,20 @@
       </ext>
     </extLst>
   </connection>
+  <connection id="3" xr16:uid="{D06D6FBD-1A79-443A-9A7C-8D9EC8B8B4B1}" name="WorksheetConnection_Spend and Transactions Dataset!$A$1:$C$168" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range 1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SpendandTransactionsDatasetA1C1681"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="177">
   <si>
     <t>brandCode</t>
   </si>
@@ -586,9 +597,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>spend</t>
   </si>
   <si>
@@ -602,6 +610,15 @@
   </si>
   <si>
     <t>Sum of transactions</t>
+  </si>
+  <si>
+    <t>GERM-X</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>Brands</t>
   </si>
 </sst>
 </file>
@@ -697,172 +714,176 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44871.978675578706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="167" xr:uid="{06A74EA5-D71C-4373-A8A5-6C899910FBC4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44882.865711226848" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="169" xr:uid="{84DAB864-A268-4FEC-82B6-48988518282E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C168" sheet="Spend and Transactions Dataset"/>
+    <worksheetSource ref="A1:C1048576" sheet="Spend and Transactions Dataset"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="brandCode" numFmtId="0">
-      <sharedItems count="167">
+      <sharedItems containsBlank="1" count="169">
         <s v="NULL"/>
+        <s v="HY-VEE"/>
         <s v="BEN AND JERRYS"/>
+        <s v="KROGER"/>
         <s v="PEPSI"/>
+        <s v="KLEENEX"/>
+        <s v="KNORR"/>
+        <s v="DORITOS"/>
+        <s v="BORDEN"/>
+        <s v="KRAFT"/>
+        <s v="DOLE"/>
+        <s v="PRINGLES"/>
+        <s v="HEMPLER'S"/>
+        <s v="MARIE CALLENDER'S"/>
+        <s v="HIDDEN VALLEY"/>
         <s v="FOLGERS"/>
         <s v="KELLOGG'S"/>
+        <s v="BETTY CROCKER"/>
+        <s v="JELL-O"/>
+        <s v="NATURE'S PATH ORGANIC"/>
+        <s v="CHEESE"/>
+        <s v="LIGHT &amp; FIT GREEK"/>
+        <s v="CAMPBELL'S"/>
+        <s v="PRIVATE SELECTION"/>
+        <s v="PEPPERIDGE FARM"/>
+        <s v="LIGHT &amp; FIT"/>
+        <s v="LAURA'S LEAN BEEF"/>
+        <s v="JUST BARE"/>
+        <s v="KIT KAT"/>
+        <s v="TOSTITOS"/>
+        <s v="HILLSHIRE FARM"/>
+        <s v="KASHI"/>
         <s v="BIGELOW"/>
-        <s v="DOLE"/>
-        <s v="KNORR"/>
-        <s v="KRAFT"/>
-        <s v="HIDDEN VALLEY"/>
-        <s v="CHEESE"/>
-        <s v="CRACKER BARREL"/>
-        <s v="CREST 3D WHITE"/>
-        <s v="CINNAMON TOAST CRUNCH"/>
-        <s v="COLEMAN NATURAL"/>
-        <s v="CHEETOS"/>
-        <s v="CHEEZ-IT"/>
-        <s v="CHEX"/>
         <s v="CADBURY"/>
-        <s v="BRASWELL'S"/>
-        <s v="BETTY CROCKER"/>
-        <s v="HEWLETT PACKARD"/>
-        <s v="HELLMANN'S/BEST FOODS"/>
-        <s v="ENERGIZER MAX"/>
-        <s v="FRESH EXPRESS"/>
-        <s v="GENERAL MILLS"/>
+        <s v="BUSH'S BEST"/>
+        <s v="CLASSICO"/>
+        <s v="V8"/>
+        <s v="JIMMY DEAN"/>
+        <s v="KRUSTEAZ"/>
+        <s v="JOHNSONVILLE"/>
+        <s v="REESE'S"/>
+        <s v="MCCORMICK GRILL MATES"/>
         <s v="KRAZY GLUE"/>
         <s v="LINDSAY"/>
         <s v="LITEHOUSE"/>
+        <s v="VELVEETA"/>
+        <s v="TROLLI"/>
+        <s v="STARKIST"/>
+        <s v="JACK LINK'S"/>
+        <s v="CINNAMON TOAST CRUNCH"/>
+        <s v="CHEEZ-IT"/>
+        <s v="GENERAL MILLS"/>
+        <s v="HARVEST SNAPS"/>
+        <s v="GREEN GIANT"/>
+        <s v="CHEERIOS"/>
+        <s v="NESTLE"/>
+        <s v="SPARKLING ICE"/>
+        <s v="DOLE CHILLED FRUIT JUICES"/>
+        <s v="RICE-A-RONI"/>
+        <s v="LIPTON"/>
+        <s v="EL MONTEREY"/>
+        <s v="MARTINELLI'S"/>
+        <s v="WELCH'S"/>
+        <s v="NUTELLA"/>
+        <s v="PLANTERS"/>
+        <s v="CAL-ORGANIC FARMS"/>
+        <s v="MISSION"/>
+        <s v="CHICKEN OF THE SEA"/>
+        <s v="SO DELICIOUS"/>
+        <s v="TIC TAC"/>
+        <s v="TEMPTATIONS"/>
+        <s v="VAN DE KAMP'S"/>
+        <s v="CONNIE'S PIZZA"/>
+        <s v="HATCH FARMS"/>
+        <s v="AMERICAN BEAUTY"/>
+        <s v="YUBAN"/>
+        <s v="SWANSON"/>
+        <s v="SPECIAL K"/>
+        <s v="WISHBONE"/>
+        <s v="NABISCO"/>
+        <s v="OREO"/>
+        <s v="RITZ"/>
+        <s v="RITZ TOASTED CHIPS"/>
+        <s v="CRACKER BARREL"/>
+        <s v="ADVIL"/>
+        <s v="BRASWELL'S"/>
+        <s v="HELLMANN'S/BEST FOODS"/>
+        <s v="HORMEL"/>
+        <s v="HAWAIIAN"/>
+        <s v="JENNIE-O"/>
+        <s v="JOHN SOULES FOODS"/>
+        <s v="THOMAS'"/>
+        <s v="KIKKOMAN"/>
         <s v="MARIE'S"/>
-        <s v="MARTINELLI'S"/>
-        <s v="MCCORMICK GRILL MATES"/>
-        <s v="KIT KAT"/>
-        <s v="JIMMY DEAN"/>
-        <s v="JACK LINK'S"/>
-        <s v="JELL-O"/>
-        <s v="PLANTERS"/>
+        <s v="SIGNATURE"/>
         <s v="PLAYTEX"/>
         <s v="ORBIT"/>
-        <s v="PRINGLES"/>
         <s v="MOUNTAIN DEW"/>
-        <s v="NUTELLA"/>
-        <s v="SIGNATURE"/>
-        <s v="TROLLI"/>
-        <s v="VELVEETA"/>
-        <s v="WELCH'S"/>
-        <s v="CAMPBELL'S"/>
+        <s v="HEWLETT PACKARD"/>
+        <s v="ENERGIZER MAX"/>
+        <s v="FRESH EXPRESS"/>
+        <s v="COLEMAN NATURAL"/>
+        <s v="CREST 3D WHITE"/>
+        <s v="CHEX"/>
+        <s v="CHEETOS"/>
         <s v="LINDT"/>
-        <s v="PEPPERIDGE FARM"/>
-        <s v="SPARKLING ICE"/>
+        <s v="HY-VEE SELECT"/>
+        <s v="HERSHEY'S KISSES"/>
+        <s v="PREGO"/>
+        <s v="RAGU"/>
+        <s v="SHOPRITE"/>
+        <s v="KETTLE BRAND"/>
+        <s v="LUNCHABLES"/>
         <s v="R.W. KNUDSEN"/>
-        <s v="REESE'S"/>
-        <s v="RITZ"/>
-        <s v="RITZ TOASTED CHIPS"/>
-        <s v="NESTLE"/>
-        <s v="NABISCO"/>
-        <s v="OREO"/>
-        <s v="LUNCHABLES"/>
-        <s v="MARIE CALLENDER'S"/>
-        <s v="JENNIE-O"/>
-        <s v="JOHN SOULES FOODS"/>
-        <s v="JOHNSONVILLE"/>
-        <s v="CLASSICO"/>
+        <s v="DIET COKE"/>
+        <s v="EDWARDS"/>
+        <s v="FRANZ"/>
+        <s v="COOL WHIP"/>
         <s v="COKE"/>
-        <s v="CHEERIOS"/>
-        <s v="COOL WHIP"/>
+        <s v="BEAR CREEK COUNTRY KITCHENS"/>
         <s v="ARROWHEAD"/>
         <s v="7UP"/>
-        <s v="BEAR CREEK COUNTRY KITCHENS"/>
-        <s v="FRANZ"/>
-        <s v="DIET COKE"/>
-        <s v="EDWARDS"/>
-        <s v="HEMPLER'S"/>
-        <s v="HAWAIIAN"/>
-        <s v="HORMEL"/>
-        <s v="WISHBONE"/>
-        <s v="V8"/>
         <s v="TOLL HOUSE"/>
         <s v="TOP FLIGHT"/>
-        <s v="THOMAS'"/>
-        <s v="KLEENEX"/>
-        <s v="LIGHT &amp; FIT GREEK"/>
-        <s v="NATURE'S PATH ORGANIC"/>
-        <s v="RICE-A-RONI"/>
-        <s v="STARKIST"/>
-        <s v="DORITOS"/>
-        <s v="EL MONTEREY"/>
-        <s v="HILLSHIRE FARM"/>
-        <s v="HARVEST SNAPS"/>
-        <s v="GREEN GIANT"/>
-        <s v="CAL-ORGANIC FARMS"/>
-        <s v="LAURA'S LEAN BEEF"/>
-        <s v="LIPTON"/>
-        <s v="JUST BARE"/>
-        <s v="KASHI"/>
-        <s v="BUSH'S BEST"/>
-        <s v="SIMPLE TRUTH ORGANIC"/>
-        <s v="MISSION"/>
-        <s v="CHICKEN OF THE SEA"/>
-        <s v="TIC TAC"/>
-        <s v="TOSTITOS"/>
-        <s v="SO DELICIOUS"/>
-        <s v="VAN DE KAMP'S"/>
-        <s v="TEMPTATIONS"/>
-        <s v="CONNIE'S PIZZA"/>
-        <s v="HATCH FARMS"/>
-        <s v="SPECIAL K"/>
-        <s v="SWANSON"/>
-        <s v="YUBAN"/>
-        <s v="BORDEN"/>
-        <s v="ADVIL"/>
-        <s v="KROGER"/>
-        <s v="KIKKOMAN"/>
-        <s v="DOLE CHILLED FRUIT JUICES"/>
-        <s v="HY-VEE"/>
-        <s v="HY-VEE SELECT"/>
-        <s v="HERITAGE FARM"/>
-        <s v="HERSHEY'S KISSES"/>
-        <s v="AMERICAN BEAUTY"/>
-        <s v="KRUSTEAZ"/>
-        <s v="SHOPRITE"/>
-        <s v="SIMPLE TRUTH"/>
-        <s v="RAGU"/>
-        <s v="ROSARITA"/>
-        <s v="PRIVATE SELECTION"/>
-        <s v="PREGO"/>
-        <s v="QUAKER"/>
-        <s v="SCHWEBEL'S"/>
+        <s v="TAYLOR FARMS"/>
         <s v="SMITHFIELD"/>
         <s v="KERRYGOLD"/>
+        <s v="SIMPLE TRUTH ORGANIC"/>
+        <s v="WONDERFUL"/>
+        <s v="OLD EL PASO"/>
+        <s v="KLARBRUNN"/>
+        <s v="SIMPLE TRUTH"/>
+        <s v="ROSARITA"/>
+        <s v="HERITAGE FARM"/>
+        <s v="SCHWEBEL'S"/>
+        <s v="QUAKER"/>
         <s v="JELLY BELLY"/>
-        <s v="TAYLOR FARMS"/>
-        <s v="WONDERFUL"/>
-        <s v="LIGHT &amp; FIT"/>
-        <s v="KLARBRUNN"/>
-        <s v="KETTLE BRAND"/>
-        <s v="CALIFIA FARMS"/>
-        <s v="CARAMELLO"/>
+        <s v="BUNNY"/>
         <s v="HANOVER"/>
         <s v="DANNON"/>
         <s v="FRENCH'S"/>
+        <s v="AZTECA"/>
         <s v="CRISPIX"/>
-        <s v="AZTECA"/>
-        <s v="BUNNY"/>
         <s v="KING ARTHUR FLOUR"/>
-        <s v="OLD EL PASO"/>
         <s v="ZESTA"/>
         <s v="FLORIDA'S NATURAL"/>
+        <s v="CARAMELLO"/>
+        <s v="CALIFIA FARMS"/>
+        <s v="BOTA BOX"/>
+        <s v="ARNOLD"/>
         <s v="GREY POUPON"/>
         <s v="HONEY BUNCHES OF OATS"/>
         <s v="FRONTERA"/>
         <s v="DARE"/>
-        <s v="BOTA BOX"/>
-        <s v="ARNOLD"/>
+        <s v="KARO"/>
+        <s v="ORGANIC ROOT STIMULATOR"/>
+        <s v="NATURE VALLEY"/>
         <s v="MORTON"/>
-        <s v="NATURE VALLEY"/>
-        <s v="ORGANIC ROOT STIMULATOR"/>
-        <s v="KARO"/>
         <s v="MERKT'S"/>
         <s v="MCCORMICK"/>
         <s v="KITCHEN BASICS"/>
@@ -872,25 +893,29 @@
         <s v="BRAND"/>
         <s v="KLONDIKE"/>
         <s v="ORAL-B GLIDE"/>
+        <s v="GERM-X"/>
+        <m/>
       </sharedItems>
       <fieldGroup par="3"/>
     </cacheField>
     <cacheField name="spend" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4" maxValue="33452"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.29" maxValue="2930282.42"/>
     </cacheField>
     <cacheField name="transactions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6005"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="502236"/>
     </cacheField>
     <cacheField name="brandCode2" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <discretePr count="167">
+        <discretePr count="169">
           <x v="5"/>
           <x v="0"/>
           <x v="1"/>
           <x v="2"/>
-          <x v="5"/>
-          <x v="5"/>
           <x v="3"/>
+          <x v="5"/>
+          <x v="5"/>
+          <x v="5"/>
+          <x v="5"/>
           <x v="4"/>
           <x v="5"/>
           <x v="5"/>
@@ -1053,11 +1078,11 @@
           <x v="5"/>
         </discretePr>
         <groupItems count="6">
+          <s v="HY-VEE"/>
           <s v="BEN AND JERRYS"/>
+          <s v="KROGER"/>
           <s v="PEPSI"/>
-          <s v="FOLGERS"/>
-          <s v="DOLE"/>
-          <s v="KNORR"/>
+          <s v="KRAFT"/>
           <s v="Group1"/>
         </groupItems>
       </fieldGroup>
@@ -1072,171 +1097,171 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44872.769153703703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{84DAB864-A268-4FEC-82B6-48988518282E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44882.904060879628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{D65E0CB6-B348-472A-9297-DF01FB611803}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C1048576" sheet="Spend and Transactions Dataset"/>
+    <worksheetSource ref="A1:C169" sheet="Spend and Transactions Dataset"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="brandCode" numFmtId="0">
-      <sharedItems containsBlank="1" count="168">
+      <sharedItems count="168">
         <s v="NULL"/>
+        <s v="HY-VEE"/>
         <s v="BEN AND JERRYS"/>
+        <s v="KROGER"/>
         <s v="PEPSI"/>
+        <s v="KLEENEX"/>
+        <s v="KNORR"/>
+        <s v="DORITOS"/>
+        <s v="BORDEN"/>
+        <s v="KRAFT"/>
+        <s v="DOLE"/>
+        <s v="PRINGLES"/>
+        <s v="HEMPLER'S"/>
+        <s v="MARIE CALLENDER'S"/>
+        <s v="HIDDEN VALLEY"/>
         <s v="FOLGERS"/>
         <s v="KELLOGG'S"/>
+        <s v="BETTY CROCKER"/>
+        <s v="JELL-O"/>
+        <s v="NATURE'S PATH ORGANIC"/>
+        <s v="CHEESE"/>
+        <s v="LIGHT &amp; FIT GREEK"/>
+        <s v="CAMPBELL'S"/>
+        <s v="PRIVATE SELECTION"/>
+        <s v="PEPPERIDGE FARM"/>
+        <s v="LIGHT &amp; FIT"/>
+        <s v="LAURA'S LEAN BEEF"/>
+        <s v="JUST BARE"/>
+        <s v="KIT KAT"/>
+        <s v="TOSTITOS"/>
+        <s v="HILLSHIRE FARM"/>
+        <s v="KASHI"/>
         <s v="BIGELOW"/>
-        <s v="DOLE"/>
-        <s v="KNORR"/>
-        <s v="KRAFT"/>
-        <s v="HIDDEN VALLEY"/>
-        <s v="CHEESE"/>
-        <s v="CRACKER BARREL"/>
-        <s v="CREST 3D WHITE"/>
-        <s v="CINNAMON TOAST CRUNCH"/>
-        <s v="COLEMAN NATURAL"/>
-        <s v="CHEETOS"/>
-        <s v="CHEEZ-IT"/>
-        <s v="CHEX"/>
         <s v="CADBURY"/>
-        <s v="BRASWELL'S"/>
-        <s v="BETTY CROCKER"/>
-        <s v="HEWLETT PACKARD"/>
-        <s v="HELLMANN'S/BEST FOODS"/>
-        <s v="ENERGIZER MAX"/>
-        <s v="FRESH EXPRESS"/>
-        <s v="GENERAL MILLS"/>
+        <s v="BUSH'S BEST"/>
+        <s v="CLASSICO"/>
+        <s v="V8"/>
+        <s v="JIMMY DEAN"/>
+        <s v="KRUSTEAZ"/>
+        <s v="JOHNSONVILLE"/>
+        <s v="REESE'S"/>
+        <s v="MCCORMICK GRILL MATES"/>
         <s v="KRAZY GLUE"/>
         <s v="LINDSAY"/>
         <s v="LITEHOUSE"/>
+        <s v="VELVEETA"/>
+        <s v="TROLLI"/>
+        <s v="STARKIST"/>
+        <s v="JACK LINK'S"/>
+        <s v="CINNAMON TOAST CRUNCH"/>
+        <s v="CHEEZ-IT"/>
+        <s v="GENERAL MILLS"/>
+        <s v="HARVEST SNAPS"/>
+        <s v="GREEN GIANT"/>
+        <s v="CHEERIOS"/>
+        <s v="NESTLE"/>
+        <s v="SPARKLING ICE"/>
+        <s v="DOLE CHILLED FRUIT JUICES"/>
+        <s v="RICE-A-RONI"/>
+        <s v="LIPTON"/>
+        <s v="EL MONTEREY"/>
+        <s v="MARTINELLI'S"/>
+        <s v="WELCH'S"/>
+        <s v="NUTELLA"/>
+        <s v="PLANTERS"/>
+        <s v="CAL-ORGANIC FARMS"/>
+        <s v="MISSION"/>
+        <s v="CHICKEN OF THE SEA"/>
+        <s v="SO DELICIOUS"/>
+        <s v="TIC TAC"/>
+        <s v="TEMPTATIONS"/>
+        <s v="VAN DE KAMP'S"/>
+        <s v="CONNIE'S PIZZA"/>
+        <s v="HATCH FARMS"/>
+        <s v="AMERICAN BEAUTY"/>
+        <s v="YUBAN"/>
+        <s v="SWANSON"/>
+        <s v="SPECIAL K"/>
+        <s v="WISHBONE"/>
+        <s v="NABISCO"/>
+        <s v="OREO"/>
+        <s v="RITZ"/>
+        <s v="RITZ TOASTED CHIPS"/>
+        <s v="CRACKER BARREL"/>
+        <s v="ADVIL"/>
+        <s v="BRASWELL'S"/>
+        <s v="HELLMANN'S/BEST FOODS"/>
+        <s v="HORMEL"/>
+        <s v="HAWAIIAN"/>
+        <s v="JENNIE-O"/>
+        <s v="JOHN SOULES FOODS"/>
+        <s v="THOMAS'"/>
+        <s v="KIKKOMAN"/>
         <s v="MARIE'S"/>
-        <s v="MARTINELLI'S"/>
-        <s v="MCCORMICK GRILL MATES"/>
-        <s v="KIT KAT"/>
-        <s v="JIMMY DEAN"/>
-        <s v="JACK LINK'S"/>
-        <s v="JELL-O"/>
-        <s v="PLANTERS"/>
+        <s v="SIGNATURE"/>
         <s v="PLAYTEX"/>
         <s v="ORBIT"/>
-        <s v="PRINGLES"/>
         <s v="MOUNTAIN DEW"/>
-        <s v="NUTELLA"/>
-        <s v="SIGNATURE"/>
-        <s v="TROLLI"/>
-        <s v="VELVEETA"/>
-        <s v="WELCH'S"/>
-        <s v="CAMPBELL'S"/>
+        <s v="HEWLETT PACKARD"/>
+        <s v="ENERGIZER MAX"/>
+        <s v="FRESH EXPRESS"/>
+        <s v="COLEMAN NATURAL"/>
+        <s v="CREST 3D WHITE"/>
+        <s v="CHEX"/>
+        <s v="CHEETOS"/>
         <s v="LINDT"/>
-        <s v="PEPPERIDGE FARM"/>
-        <s v="SPARKLING ICE"/>
+        <s v="HY-VEE SELECT"/>
+        <s v="HERSHEY'S KISSES"/>
+        <s v="PREGO"/>
+        <s v="RAGU"/>
+        <s v="SHOPRITE"/>
+        <s v="KETTLE BRAND"/>
+        <s v="LUNCHABLES"/>
         <s v="R.W. KNUDSEN"/>
-        <s v="REESE'S"/>
-        <s v="RITZ"/>
-        <s v="RITZ TOASTED CHIPS"/>
-        <s v="NESTLE"/>
-        <s v="NABISCO"/>
-        <s v="OREO"/>
-        <s v="LUNCHABLES"/>
-        <s v="MARIE CALLENDER'S"/>
-        <s v="JENNIE-O"/>
-        <s v="JOHN SOULES FOODS"/>
-        <s v="JOHNSONVILLE"/>
-        <s v="CLASSICO"/>
+        <s v="DIET COKE"/>
+        <s v="EDWARDS"/>
+        <s v="FRANZ"/>
+        <s v="COOL WHIP"/>
         <s v="COKE"/>
-        <s v="CHEERIOS"/>
-        <s v="COOL WHIP"/>
+        <s v="BEAR CREEK COUNTRY KITCHENS"/>
         <s v="ARROWHEAD"/>
         <s v="7UP"/>
-        <s v="BEAR CREEK COUNTRY KITCHENS"/>
-        <s v="FRANZ"/>
-        <s v="DIET COKE"/>
-        <s v="EDWARDS"/>
-        <s v="HEMPLER'S"/>
-        <s v="HAWAIIAN"/>
-        <s v="HORMEL"/>
-        <s v="WISHBONE"/>
-        <s v="V8"/>
         <s v="TOLL HOUSE"/>
         <s v="TOP FLIGHT"/>
-        <s v="THOMAS'"/>
-        <s v="KLEENEX"/>
-        <s v="LIGHT &amp; FIT GREEK"/>
-        <s v="NATURE'S PATH ORGANIC"/>
-        <s v="RICE-A-RONI"/>
-        <s v="STARKIST"/>
-        <s v="DORITOS"/>
-        <s v="EL MONTEREY"/>
-        <s v="HILLSHIRE FARM"/>
-        <s v="HARVEST SNAPS"/>
-        <s v="GREEN GIANT"/>
-        <s v="CAL-ORGANIC FARMS"/>
-        <s v="LAURA'S LEAN BEEF"/>
-        <s v="LIPTON"/>
-        <s v="JUST BARE"/>
-        <s v="KASHI"/>
-        <s v="BUSH'S BEST"/>
-        <s v="SIMPLE TRUTH ORGANIC"/>
-        <s v="MISSION"/>
-        <s v="CHICKEN OF THE SEA"/>
-        <s v="TIC TAC"/>
-        <s v="TOSTITOS"/>
-        <s v="SO DELICIOUS"/>
-        <s v="VAN DE KAMP'S"/>
-        <s v="TEMPTATIONS"/>
-        <s v="CONNIE'S PIZZA"/>
-        <s v="HATCH FARMS"/>
-        <s v="SPECIAL K"/>
-        <s v="SWANSON"/>
-        <s v="YUBAN"/>
-        <s v="BORDEN"/>
-        <s v="ADVIL"/>
-        <s v="KROGER"/>
-        <s v="KIKKOMAN"/>
-        <s v="DOLE CHILLED FRUIT JUICES"/>
-        <s v="HY-VEE"/>
-        <s v="HY-VEE SELECT"/>
-        <s v="HERITAGE FARM"/>
-        <s v="HERSHEY'S KISSES"/>
-        <s v="AMERICAN BEAUTY"/>
-        <s v="KRUSTEAZ"/>
-        <s v="SHOPRITE"/>
-        <s v="SIMPLE TRUTH"/>
-        <s v="RAGU"/>
-        <s v="ROSARITA"/>
-        <s v="PRIVATE SELECTION"/>
-        <s v="PREGO"/>
-        <s v="QUAKER"/>
-        <s v="SCHWEBEL'S"/>
+        <s v="TAYLOR FARMS"/>
         <s v="SMITHFIELD"/>
         <s v="KERRYGOLD"/>
+        <s v="SIMPLE TRUTH ORGANIC"/>
+        <s v="WONDERFUL"/>
+        <s v="OLD EL PASO"/>
+        <s v="KLARBRUNN"/>
+        <s v="SIMPLE TRUTH"/>
+        <s v="ROSARITA"/>
+        <s v="HERITAGE FARM"/>
+        <s v="SCHWEBEL'S"/>
+        <s v="QUAKER"/>
         <s v="JELLY BELLY"/>
-        <s v="TAYLOR FARMS"/>
-        <s v="WONDERFUL"/>
-        <s v="LIGHT &amp; FIT"/>
-        <s v="KLARBRUNN"/>
-        <s v="KETTLE BRAND"/>
-        <s v="CALIFIA FARMS"/>
-        <s v="CARAMELLO"/>
+        <s v="BUNNY"/>
         <s v="HANOVER"/>
         <s v="DANNON"/>
         <s v="FRENCH'S"/>
+        <s v="AZTECA"/>
         <s v="CRISPIX"/>
-        <s v="AZTECA"/>
-        <s v="BUNNY"/>
         <s v="KING ARTHUR FLOUR"/>
-        <s v="OLD EL PASO"/>
         <s v="ZESTA"/>
         <s v="FLORIDA'S NATURAL"/>
+        <s v="CARAMELLO"/>
+        <s v="CALIFIA FARMS"/>
+        <s v="BOTA BOX"/>
+        <s v="ARNOLD"/>
         <s v="GREY POUPON"/>
         <s v="HONEY BUNCHES OF OATS"/>
         <s v="FRONTERA"/>
         <s v="DARE"/>
-        <s v="BOTA BOX"/>
-        <s v="ARNOLD"/>
+        <s v="KARO"/>
+        <s v="ORGANIC ROOT STIMULATOR"/>
+        <s v="NATURE VALLEY"/>
         <s v="MORTON"/>
-        <s v="NATURE VALLEY"/>
-        <s v="ORGANIC ROOT STIMULATOR"/>
-        <s v="KARO"/>
         <s v="MERKT'S"/>
         <s v="MCCORMICK"/>
         <s v="KITCHEN BASICS"/>
@@ -1246,15 +1271,15 @@
         <s v="BRAND"/>
         <s v="KLONDIKE"/>
         <s v="ORAL-B GLIDE"/>
-        <m/>
+        <s v="GERM-X"/>
       </sharedItems>
       <fieldGroup par="3"/>
     </cacheField>
     <cacheField name="spend" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="33452"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.29" maxValue="2930282.42"/>
     </cacheField>
     <cacheField name="transactions" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6005"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="502236"/>
     </cacheField>
     <cacheField name="brandCode2" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -1429,11 +1454,11 @@
           <x v="5"/>
         </discretePr>
         <groupItems count="6">
+          <s v="HY-VEE"/>
           <s v="BEN AND JERRYS"/>
+          <s v="KROGER"/>
           <s v="PEPSI"/>
-          <s v="FOLGERS"/>
-          <s v="KELLOGG'S"/>
-          <s v="BIGELOW"/>
+          <s v="KLEENEX"/>
           <s v="Group1"/>
         </groupItems>
       </fieldGroup>
@@ -1448,825 +1473,825 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="167">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="169">
   <r>
     <x v="0"/>
-    <n v="33452"/>
-    <n v="6005"/>
+    <n v="2930282.42"/>
+    <n v="502236"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="20040.8"/>
-    <n v="4111"/>
+    <n v="178692.88"/>
+    <n v="49051"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="19390.599999999999"/>
-    <n v="3937"/>
+    <n v="197337.68"/>
+    <n v="35937"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="18900"/>
-    <n v="3681"/>
+    <n v="189181.48"/>
+    <n v="26958"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="18555.400000000001"/>
-    <n v="3603"/>
+    <n v="78870.86"/>
+    <n v="19901"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="18362.7"/>
-    <n v="3534"/>
+    <n v="56050.44"/>
+    <n v="16579"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="18068"/>
-    <n v="3748"/>
+    <n v="61157.05"/>
+    <n v="16250"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="17429.599999999999"/>
-    <n v="3674"/>
+    <n v="48321.46"/>
+    <n v="14525"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="17024.8"/>
-    <n v="3439"/>
+    <n v="42152.79"/>
+    <n v="12615"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="13022.2"/>
-    <n v="2092"/>
+    <n v="70858.880000000005"/>
+    <n v="11352"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="11750.2"/>
-    <n v="1739"/>
+    <n v="44007.29"/>
+    <n v="9608"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="11339.5"/>
-    <n v="1604"/>
+    <n v="54146.18"/>
+    <n v="7628"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="11175.6"/>
+    <n v="53838.2"/>
+    <n v="7472"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="45453.75"/>
+    <n v="6345"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="42379.3"/>
+    <n v="6202"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="34797.56"/>
+    <n v="5923"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="34452.92"/>
+    <n v="5845"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="41238.94"/>
+    <n v="5824"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="40532.639999999999"/>
+    <n v="5682"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="19100.18"/>
+    <n v="5293"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="36385.339999999997"/>
+    <n v="5179"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="18203.75"/>
+    <n v="5030"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="30651.94"/>
+    <n v="4771"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="33053.65"/>
+    <n v="4690"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="32215.21"/>
+    <n v="4570"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="16168.49"/>
+    <n v="4565"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="16442.810000000001"/>
+    <n v="4507"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="16442.810000000001"/>
+    <n v="4507"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="31441.89"/>
+    <n v="4413"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="15799.37"/>
+    <n v="4328"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="15695.87"/>
+    <n v="4299"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="15494.61"/>
+    <n v="4247"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="23084.66"/>
+    <n v="4204"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="29357.07"/>
+    <n v="4110"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="14182.11"/>
+    <n v="3886"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="27625.4"/>
+    <n v="3878"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="27272.25"/>
+    <n v="3807"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="24988.27"/>
+    <n v="3511"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="23609.75"/>
+    <n v="3350"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="22903.45"/>
+    <n v="3208"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="22903.45"/>
+    <n v="3208"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="10767.37"/>
+    <n v="2981"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="9826.68"/>
+    <n v="2713"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="9252.52"/>
+    <n v="2549"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="8817.98"/>
+    <n v="2423"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="8705.6299999999992"/>
+    <n v="2393"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="8508.73"/>
+    <n v="2337"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="8230.32"/>
+    <n v="2271"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="15897.52"/>
+    <n v="2242"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="15897.52"/>
+    <n v="2242"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="15544.37"/>
+    <n v="2171"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="15544.37"/>
+    <n v="2171"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="7934.08"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="7541.17"/>
+    <n v="2063"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="14165.85"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="13424.33"/>
+    <n v="1907"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="6953.63"/>
+    <n v="1894"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="13260.39"/>
+    <n v="1875"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="13260.39"/>
+    <n v="1875"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="6759.33"/>
+    <n v="1859"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="13"/>
-    <n v="11175.6"/>
+    <x v="94"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="14"/>
-    <n v="11175.6"/>
+    <x v="95"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="15"/>
-    <n v="11175.6"/>
+    <x v="96"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="16"/>
-    <n v="11175.6"/>
+    <x v="97"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="17"/>
-    <n v="11175.6"/>
+    <x v="98"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="18"/>
-    <n v="11175.6"/>
+    <x v="99"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="19"/>
-    <n v="11175.6"/>
+    <x v="100"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="20"/>
-    <n v="11175.6"/>
+    <x v="101"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="21"/>
-    <n v="11175.6"/>
+    <x v="102"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="22"/>
-    <n v="11175.6"/>
+    <x v="103"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="23"/>
-    <n v="11175.6"/>
+    <x v="104"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="24"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <n v="10408.700000000001"/>
-    <n v="1645"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <n v="9834.5"/>
+    <x v="105"/>
+    <n v="9834.5400000000009"/>
     <n v="1481"/>
   </r>
   <r>
-    <x v="48"/>
-    <n v="9664.9"/>
-    <n v="1433"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <n v="9090.7999999999993"/>
+    <x v="106"/>
+    <n v="4959.01"/>
+    <n v="1347"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <n v="4801.82"/>
+    <n v="1318"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="50"/>
-    <n v="9090.7999999999993"/>
+    <x v="113"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="51"/>
-    <n v="9090.7999999999993"/>
+    <x v="114"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="52"/>
-    <n v="9090.7999999999993"/>
+    <x v="115"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="53"/>
-    <n v="9090.7999999999993"/>
+    <x v="116"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="54"/>
-    <n v="9090.7999999999993"/>
+    <x v="117"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="55"/>
-    <n v="9090.7999999999993"/>
+    <x v="118"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="56"/>
-    <n v="9090.7999999999993"/>
+    <x v="119"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="57"/>
-    <n v="9090.7999999999993"/>
+    <x v="120"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="58"/>
-    <n v="9090.7999999999993"/>
+    <x v="121"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="59"/>
-    <n v="9090.7999999999993"/>
+    <x v="122"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="60"/>
-    <n v="9090.7999999999993"/>
+    <x v="123"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="61"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <n v="9034.5"/>
-    <n v="2576"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <n v="8977.2999999999993"/>
-    <n v="2479"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <n v="8977.2999999999993"/>
-    <n v="2479"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <n v="8705.6"/>
-    <n v="2393"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <n v="8705.6"/>
-    <n v="2393"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <n v="8253.2999999999993"/>
-    <n v="2368"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <n v="8230.2999999999993"/>
-    <n v="2271"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <n v="7799.4"/>
-    <n v="2144"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <n v="7550.6"/>
+    <x v="124"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <n v="7550.56"/>
     <n v="1185"/>
   </r>
   <r>
-    <x v="97"/>
-    <n v="7541.2"/>
-    <n v="2063"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="107"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <n v="7122.4"/>
-    <n v="2044"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <n v="6953.6"/>
-    <n v="1894"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <n v="6806.8"/>
-    <n v="973"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <n v="6759.3"/>
-    <n v="1859"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <n v="6756.2"/>
-    <n v="1835"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <n v="6280.1"/>
-    <n v="1719"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <n v="4959"/>
-    <n v="1347"/>
-  </r>
-  <r>
-    <x v="116"/>
-    <n v="4722"/>
+    <x v="128"/>
+    <n v="3769.84"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <n v="2805.53"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="2633.66"/>
+    <n v="760"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="117"/>
-    <n v="4722"/>
+    <x v="132"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="118"/>
-    <n v="4722"/>
+    <x v="133"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="119"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="125"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="126"/>
+    <x v="134"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="127"/>
+    <x v="135"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="128"/>
+    <x v="136"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="129"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <n v="3769.8"/>
-    <n v="996"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <n v="3444.1"/>
-    <n v="968"/>
-  </r>
-  <r>
-    <x v="134"/>
-    <n v="2633.7"/>
-    <n v="760"/>
-  </r>
-  <r>
-    <x v="135"/>
-    <n v="2400.9"/>
-    <n v="659"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <n v="2084.8000000000002"/>
+    <x v="137"/>
+    <n v="2061.7399999999998"/>
+    <n v="588"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <n v="1846.66"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <n v="1846.66"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <n v="1083.24"/>
+    <n v="341"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="2084.8200000000002"/>
     <n v="303"/>
   </r>
   <r>
-    <x v="137"/>
-    <n v="2084.8000000000002"/>
+    <x v="147"/>
+    <n v="2084.8200000000002"/>
     <n v="303"/>
   </r>
   <r>
-    <x v="138"/>
-    <n v="1846.7"/>
-    <n v="520"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <n v="1846.7"/>
-    <n v="520"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="144"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="146"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <n v="1083.2"/>
-    <n v="341"/>
-  </r>
-  <r>
     <x v="148"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="149"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="150"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="151"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="152"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="153"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="154"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="155"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="158"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="159"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="160"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="161"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="162"/>
-    <n v="427.8"/>
+    <n v="427.81"/>
     <n v="103"/>
   </r>
   <r>
     <x v="163"/>
-    <n v="373.5"/>
+    <n v="373.55"/>
     <n v="93"/>
   </r>
   <r>
@@ -2281,8 +2306,18 @@
   </r>
   <r>
     <x v="166"/>
-    <n v="4"/>
+    <n v="3.99"/>
     <n v="1"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <n v="2.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2291,822 +2326,822 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
   <r>
     <x v="0"/>
-    <n v="33452"/>
-    <n v="6005"/>
+    <n v="2930282.42"/>
+    <n v="502236"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="20040.8"/>
-    <n v="4111"/>
+    <n v="178692.88"/>
+    <n v="49051"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="19390.599999999999"/>
-    <n v="3937"/>
+    <n v="197337.68"/>
+    <n v="35937"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="18900"/>
-    <n v="3681"/>
+    <n v="189181.48"/>
+    <n v="26958"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="18555.400000000001"/>
-    <n v="3603"/>
+    <n v="78870.86"/>
+    <n v="19901"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="18362.7"/>
-    <n v="3534"/>
+    <n v="56050.44"/>
+    <n v="16579"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="18068"/>
-    <n v="3748"/>
+    <n v="61157.05"/>
+    <n v="16250"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="17429.599999999999"/>
-    <n v="3674"/>
+    <n v="48321.46"/>
+    <n v="14525"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="17024.8"/>
-    <n v="3439"/>
+    <n v="42152.79"/>
+    <n v="12615"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="13022.2"/>
-    <n v="2092"/>
+    <n v="70858.880000000005"/>
+    <n v="11352"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="11750.2"/>
-    <n v="1739"/>
+    <n v="44007.29"/>
+    <n v="9608"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="11339.5"/>
-    <n v="1604"/>
+    <n v="54146.18"/>
+    <n v="7628"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="11175.6"/>
+    <n v="53838.2"/>
+    <n v="7472"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="45453.75"/>
+    <n v="6345"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="42379.3"/>
+    <n v="6202"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="34797.56"/>
+    <n v="5923"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="34452.92"/>
+    <n v="5845"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="41238.94"/>
+    <n v="5824"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="40532.639999999999"/>
+    <n v="5682"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="19100.18"/>
+    <n v="5293"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="36385.339999999997"/>
+    <n v="5179"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="18203.75"/>
+    <n v="5030"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="30651.94"/>
+    <n v="4771"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="33053.65"/>
+    <n v="4690"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="32215.21"/>
+    <n v="4570"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="16168.49"/>
+    <n v="4565"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="16442.810000000001"/>
+    <n v="4507"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="16442.810000000001"/>
+    <n v="4507"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="31441.89"/>
+    <n v="4413"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="15799.37"/>
+    <n v="4328"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="15695.87"/>
+    <n v="4299"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="15494.61"/>
+    <n v="4247"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="23084.66"/>
+    <n v="4204"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="29357.07"/>
+    <n v="4110"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="14182.11"/>
+    <n v="3886"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="27625.4"/>
+    <n v="3878"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="27272.25"/>
+    <n v="3807"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="24988.27"/>
+    <n v="3511"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="23609.75"/>
+    <n v="3350"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="22903.45"/>
+    <n v="3208"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="22903.45"/>
+    <n v="3208"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="22351.14"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="10767.37"/>
+    <n v="2981"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="20266.32"/>
+    <n v="2841"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="9826.68"/>
+    <n v="2713"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="9252.52"/>
+    <n v="2549"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="18181.5"/>
+    <n v="2538"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="8817.98"/>
+    <n v="2423"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="8705.6299999999992"/>
+    <n v="2393"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="8508.73"/>
+    <n v="2337"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="8230.32"/>
+    <n v="2271"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="15897.52"/>
+    <n v="2242"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="15897.52"/>
+    <n v="2242"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="15544.37"/>
+    <n v="2171"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="15544.37"/>
+    <n v="2171"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="7934.08"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="7541.17"/>
+    <n v="2063"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="7527.79"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="7379.83"/>
+    <n v="2031"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="14165.85"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="7187.14"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="13812.7"/>
+    <n v="1939"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="13424.33"/>
+    <n v="1907"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="6953.63"/>
+    <n v="1894"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="13260.39"/>
+    <n v="1875"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="13260.39"/>
+    <n v="1875"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="13459.55"/>
+    <n v="1868"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="6759.33"/>
+    <n v="1859"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="13"/>
-    <n v="11175.6"/>
+    <x v="94"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="14"/>
-    <n v="11175.6"/>
+    <x v="95"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="15"/>
-    <n v="11175.6"/>
+    <x v="96"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="16"/>
-    <n v="11175.6"/>
+    <x v="97"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="17"/>
-    <n v="11175.6"/>
+    <x v="98"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="18"/>
-    <n v="11175.6"/>
+    <x v="99"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="19"/>
-    <n v="11175.6"/>
+    <x v="100"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="20"/>
-    <n v="11175.6"/>
+    <x v="101"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="21"/>
-    <n v="11175.6"/>
+    <x v="102"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="22"/>
-    <n v="11175.6"/>
+    <x v="103"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="23"/>
-    <n v="11175.6"/>
+    <x v="104"/>
+    <n v="11175.57"/>
     <n v="1572"/>
   </r>
   <r>
-    <x v="24"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <n v="11175.6"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <n v="10408.700000000001"/>
-    <n v="1645"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <n v="9834.5"/>
+    <x v="105"/>
+    <n v="9834.5400000000009"/>
     <n v="1481"/>
   </r>
   <r>
-    <x v="48"/>
-    <n v="9664.9"/>
-    <n v="1433"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <n v="9090.7999999999993"/>
+    <x v="106"/>
+    <n v="4959.01"/>
+    <n v="1347"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="9443.9"/>
+    <n v="1340"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <n v="4801.82"/>
+    <n v="1318"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="50"/>
-    <n v="9090.7999999999993"/>
+    <x v="113"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="51"/>
-    <n v="9090.7999999999993"/>
+    <x v="114"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="52"/>
-    <n v="9090.7999999999993"/>
+    <x v="115"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="53"/>
-    <n v="9090.7999999999993"/>
+    <x v="116"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="54"/>
-    <n v="9090.7999999999993"/>
+    <x v="117"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="55"/>
-    <n v="9090.7999999999993"/>
+    <x v="118"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="56"/>
-    <n v="9090.7999999999993"/>
+    <x v="119"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="57"/>
-    <n v="9090.7999999999993"/>
+    <x v="120"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="58"/>
-    <n v="9090.7999999999993"/>
+    <x v="121"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="59"/>
-    <n v="9090.7999999999993"/>
+    <x v="122"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="60"/>
-    <n v="9090.7999999999993"/>
+    <x v="123"/>
+    <n v="9090.75"/>
     <n v="1269"/>
   </r>
   <r>
-    <x v="61"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <n v="9090.7999999999993"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <n v="9034.5"/>
-    <n v="2576"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <n v="8977.2999999999993"/>
-    <n v="2479"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <n v="8977.2999999999993"/>
-    <n v="2479"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <n v="8705.6"/>
-    <n v="2393"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <n v="8705.6"/>
-    <n v="2393"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <n v="8253.2999999999993"/>
-    <n v="2368"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <n v="8230.2999999999993"/>
-    <n v="2271"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <n v="7934.1"/>
-    <n v="2170"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <n v="7799.4"/>
-    <n v="2144"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <n v="7550.6"/>
+    <x v="124"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <n v="8737.6"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <n v="7550.56"/>
     <n v="1185"/>
   </r>
   <r>
-    <x v="97"/>
-    <n v="7541.2"/>
-    <n v="2063"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <n v="7527.8"/>
-    <n v="2058"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <n v="7379.8"/>
-    <n v="2031"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="107"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <n v="7187.1"/>
-    <n v="1962"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <n v="7122.4"/>
-    <n v="2044"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <n v="6953.6"/>
-    <n v="1894"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <n v="6806.8"/>
-    <n v="973"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <n v="6759.3"/>
-    <n v="1859"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <n v="6756.2"/>
-    <n v="1835"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <n v="6280.1"/>
-    <n v="1719"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <n v="4959"/>
-    <n v="1347"/>
-  </r>
-  <r>
-    <x v="116"/>
-    <n v="4722"/>
+    <x v="128"/>
+    <n v="3769.84"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <n v="2805.53"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="2633.66"/>
+    <n v="760"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="117"/>
-    <n v="4722"/>
+    <x v="132"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="118"/>
-    <n v="4722"/>
+    <x v="133"/>
+    <n v="4721.95"/>
     <n v="670"/>
   </r>
   <r>
-    <x v="119"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="125"/>
-    <n v="4722"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="126"/>
+    <x v="134"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="127"/>
+    <x v="135"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="128"/>
+    <x v="136"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="129"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <n v="4368.8"/>
-    <n v="599"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <n v="3769.8"/>
-    <n v="996"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <n v="3444.1"/>
-    <n v="968"/>
-  </r>
-  <r>
-    <x v="134"/>
-    <n v="2633.7"/>
-    <n v="760"/>
-  </r>
-  <r>
-    <x v="135"/>
-    <n v="2400.9"/>
-    <n v="659"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <n v="2084.8000000000002"/>
+    <x v="137"/>
+    <n v="2061.7399999999998"/>
+    <n v="588"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <n v="1846.66"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <n v="1846.66"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <n v="1317.95"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <n v="1083.24"/>
+    <n v="341"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="2084.8200000000002"/>
     <n v="303"/>
   </r>
   <r>
-    <x v="137"/>
-    <n v="2084.8000000000002"/>
+    <x v="147"/>
+    <n v="2084.8200000000002"/>
     <n v="303"/>
   </r>
   <r>
-    <x v="138"/>
-    <n v="1846.7"/>
-    <n v="520"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <n v="1846.7"/>
-    <n v="520"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="144"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="146"/>
-    <n v="1317.9"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <n v="1083.2"/>
-    <n v="341"/>
-  </r>
-  <r>
     <x v="148"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="149"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="150"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="151"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="152"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="153"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="154"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="155"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="158"/>
-    <n v="743.8"/>
+    <n v="743.79"/>
     <n v="212"/>
   </r>
   <r>
     <x v="159"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="160"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="161"/>
-    <n v="574.20000000000005"/>
+    <n v="574.16"/>
     <n v="164"/>
   </r>
   <r>
     <x v="162"/>
-    <n v="427.8"/>
+    <n v="427.81"/>
     <n v="103"/>
   </r>
   <r>
     <x v="163"/>
-    <n v="373.5"/>
+    <n v="373.55"/>
     <n v="93"/>
   </r>
   <r>
@@ -3121,191 +3156,446 @@
   </r>
   <r>
     <x v="166"/>
-    <n v="4"/>
+    <n v="3.99"/>
     <n v="1"/>
   </r>
   <r>
     <x v="167"/>
-    <m/>
-    <m/>
+    <n v="2.29"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11BEA068-D7AA-4A98-8F98-11112D46283F}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Brands">
+  <location ref="A12:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="169">
+        <item x="121"/>
+        <item x="84"/>
+        <item x="74"/>
+        <item x="149"/>
+        <item x="120"/>
+        <item x="141"/>
+        <item x="119"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="148"/>
+        <item x="164"/>
+        <item x="85"/>
+        <item x="137"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="147"/>
+        <item x="65"/>
+        <item x="22"/>
+        <item x="146"/>
+        <item x="54"/>
+        <item x="20"/>
+        <item x="104"/>
+        <item x="50"/>
+        <item x="103"/>
+        <item x="67"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="118"/>
+        <item x="101"/>
+        <item x="72"/>
+        <item x="117"/>
+        <item x="83"/>
+        <item x="102"/>
+        <item x="142"/>
+        <item x="139"/>
+        <item x="153"/>
+        <item x="114"/>
+        <item x="10"/>
+        <item x="57"/>
+        <item x="7"/>
+        <item x="115"/>
+        <item x="60"/>
+        <item x="99"/>
+        <item x="163"/>
+        <item x="145"/>
+        <item x="15"/>
+        <item x="116"/>
+        <item x="140"/>
+        <item x="100"/>
+        <item x="152"/>
+        <item x="51"/>
+        <item x="167"/>
+        <item x="53"/>
+        <item x="150"/>
+        <item x="138"/>
+        <item x="52"/>
+        <item x="73"/>
+        <item x="88"/>
+        <item x="86"/>
+        <item x="12"/>
+        <item x="133"/>
+        <item x="107"/>
+        <item x="98"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="151"/>
+        <item x="87"/>
+        <item x="1"/>
+        <item x="106"/>
+        <item x="48"/>
+        <item x="18"/>
+        <item x="136"/>
+        <item x="89"/>
+        <item x="37"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="154"/>
+        <item x="31"/>
+        <item x="16"/>
+        <item x="126"/>
+        <item x="111"/>
+        <item x="92"/>
+        <item x="143"/>
+        <item x="28"/>
+        <item x="160"/>
+        <item x="130"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="42"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="105"/>
+        <item x="59"/>
+        <item x="44"/>
+        <item x="112"/>
+        <item x="13"/>
+        <item x="93"/>
+        <item x="61"/>
+        <item x="159"/>
+        <item x="41"/>
+        <item x="158"/>
+        <item x="66"/>
+        <item x="157"/>
+        <item x="97"/>
+        <item x="79"/>
+        <item x="156"/>
+        <item x="19"/>
+        <item x="55"/>
+        <item x="0"/>
+        <item x="63"/>
+        <item x="129"/>
+        <item x="166"/>
+        <item x="96"/>
+        <item x="80"/>
+        <item x="155"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="64"/>
+        <item x="95"/>
+        <item x="108"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="113"/>
+        <item x="109"/>
+        <item x="40"/>
+        <item x="58"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="132"/>
+        <item x="134"/>
+        <item x="110"/>
+        <item x="94"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="125"/>
+        <item x="68"/>
+        <item x="56"/>
+        <item x="77"/>
+        <item x="47"/>
+        <item x="161"/>
+        <item x="76"/>
+        <item x="124"/>
+        <item x="70"/>
+        <item x="162"/>
+        <item x="91"/>
+        <item x="69"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="29"/>
+        <item x="46"/>
+        <item x="36"/>
+        <item x="71"/>
+        <item x="45"/>
+        <item x="62"/>
+        <item x="78"/>
+        <item x="128"/>
+        <item x="75"/>
+        <item x="144"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item n="All Other Brands" sd="0" x="5"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of transactions" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="brands">
   <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="169">
+      <items count="170">
+        <item x="121"/>
+        <item x="84"/>
+        <item x="74"/>
+        <item x="149"/>
+        <item x="120"/>
+        <item x="141"/>
+        <item x="119"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="148"/>
+        <item x="164"/>
+        <item x="85"/>
+        <item x="137"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="147"/>
+        <item x="65"/>
+        <item x="22"/>
+        <item x="146"/>
+        <item x="54"/>
+        <item x="20"/>
+        <item x="104"/>
+        <item x="50"/>
+        <item x="103"/>
         <item x="67"/>
-        <item x="110"/>
+        <item x="49"/>
+        <item x="35"/>
         <item x="118"/>
+        <item x="101"/>
+        <item x="72"/>
+        <item x="117"/>
+        <item x="83"/>
+        <item x="102"/>
+        <item x="142"/>
+        <item x="139"/>
         <item x="153"/>
-        <item x="66"/>
-        <item x="142"/>
-        <item x="68"/>
+        <item x="114"/>
+        <item x="10"/>
+        <item x="57"/>
+        <item x="7"/>
+        <item x="115"/>
+        <item x="60"/>
+        <item x="99"/>
+        <item x="163"/>
+        <item x="145"/>
+        <item x="15"/>
+        <item x="116"/>
+        <item x="140"/>
+        <item x="100"/>
+        <item x="152"/>
+        <item x="51"/>
+        <item x="167"/>
+        <item x="53"/>
+        <item x="150"/>
+        <item x="138"/>
+        <item x="52"/>
+        <item x="73"/>
+        <item x="88"/>
+        <item x="86"/>
+        <item x="12"/>
+        <item x="133"/>
+        <item x="107"/>
+        <item x="98"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="151"/>
+        <item x="87"/>
         <item x="1"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="109"/>
-        <item x="152"/>
-        <item x="164"/>
-        <item x="19"/>
-        <item x="143"/>
-        <item x="95"/>
+        <item x="106"/>
+        <item x="48"/>
         <item x="18"/>
         <item x="136"/>
+        <item x="89"/>
+        <item x="37"/>
         <item x="90"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="154"/>
+        <item x="31"/>
+        <item x="16"/>
+        <item x="126"/>
+        <item x="111"/>
+        <item x="92"/>
+        <item x="143"/>
+        <item x="28"/>
+        <item x="160"/>
+        <item x="130"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="42"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="105"/>
+        <item x="59"/>
+        <item x="44"/>
+        <item x="112"/>
+        <item x="13"/>
+        <item x="93"/>
+        <item x="61"/>
+        <item x="159"/>
+        <item x="41"/>
+        <item x="158"/>
+        <item x="66"/>
+        <item x="157"/>
+        <item x="97"/>
+        <item x="79"/>
+        <item x="156"/>
+        <item x="19"/>
+        <item x="55"/>
+        <item x="0"/>
+        <item x="63"/>
+        <item x="129"/>
+        <item x="166"/>
+        <item x="96"/>
+        <item x="80"/>
+        <item x="155"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="64"/>
+        <item x="95"/>
+        <item x="108"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="113"/>
+        <item x="109"/>
+        <item x="40"/>
+        <item x="58"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="132"/>
+        <item x="134"/>
+        <item x="110"/>
+        <item x="94"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="125"/>
+        <item x="68"/>
+        <item x="56"/>
+        <item x="77"/>
+        <item x="47"/>
+        <item x="161"/>
+        <item x="76"/>
+        <item x="124"/>
+        <item x="70"/>
+        <item x="162"/>
+        <item x="91"/>
+        <item x="69"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="29"/>
         <item x="46"/>
-        <item x="137"/>
-        <item x="64"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="98"/>
-        <item x="13"/>
+        <item x="36"/>
+        <item x="71"/>
+        <item x="45"/>
         <item x="62"/>
-        <item x="63"/>
-        <item x="14"/>
-        <item x="104"/>
-        <item x="65"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="141"/>
-        <item x="139"/>
-        <item x="151"/>
-        <item x="70"/>
-        <item x="6"/>
-        <item x="113"/>
-        <item x="85"/>
-        <item x="71"/>
-        <item x="86"/>
-        <item x="23"/>
-        <item x="163"/>
-        <item x="147"/>
-        <item x="3"/>
-        <item x="69"/>
-        <item x="140"/>
-        <item x="24"/>
-        <item x="150"/>
-        <item x="25"/>
-        <item x="89"/>
-        <item x="148"/>
-        <item x="138"/>
-        <item x="88"/>
-        <item x="105"/>
-        <item x="73"/>
-        <item x="22"/>
-        <item x="72"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="21"/>
-        <item x="9"/>
-        <item x="87"/>
-        <item x="149"/>
-        <item x="74"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="130"/>
-        <item x="59"/>
-        <item x="33"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="93"/>
-        <item x="157"/>
-        <item x="94"/>
-        <item x="4"/>
-        <item x="129"/>
-        <item x="135"/>
-        <item x="112"/>
+        <item x="78"/>
+        <item x="128"/>
+        <item x="75"/>
         <item x="144"/>
-        <item x="32"/>
-        <item x="160"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="165"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="91"/>
-        <item x="133"/>
-        <item x="81"/>
-        <item x="27"/>
-        <item x="47"/>
-        <item x="92"/>
-        <item x="28"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="159"/>
-        <item x="31"/>
-        <item x="158"/>
-        <item x="97"/>
-        <item x="154"/>
-        <item x="40"/>
-        <item x="55"/>
-        <item x="155"/>
-        <item x="82"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="41"/>
-        <item x="145"/>
-        <item x="166"/>
-        <item x="38"/>
-        <item x="56"/>
-        <item x="156"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="125"/>
-        <item x="39"/>
-        <item x="124"/>
-        <item x="126"/>
-        <item x="50"/>
-        <item x="122"/>
-        <item x="51"/>
-        <item x="83"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="123"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="42"/>
-        <item x="121"/>
-        <item x="96"/>
-        <item x="128"/>
-        <item x="101"/>
-        <item x="49"/>
-        <item x="106"/>
-        <item x="84"/>
-        <item x="161"/>
-        <item x="107"/>
-        <item x="131"/>
-        <item x="103"/>
-        <item x="162"/>
-        <item x="79"/>
-        <item x="99"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="100"/>
-        <item x="43"/>
-        <item x="76"/>
-        <item x="102"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="75"/>
-        <item x="132"/>
-        <item x="108"/>
-        <item x="146"/>
-        <item x="167"/>
+        <item x="168"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3323,11 +3613,11 @@
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="7">
         <item n="All Other Brands" sd="0" x="5"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="0"/>
         <item sd="0" x="4"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3353,16 +3643,16 @@
       <x v="1"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="5"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3373,259 +3663,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of spend" fld="1" baseField="3" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E481F3AD-C80A-499C-9466-715E761E9898}" name="PivotTable7" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField name="Transactions Group" axis="axisRow" showAll="0" sortType="descending">
-      <items count="168">
-        <item x="67"/>
-        <item x="110"/>
-        <item x="118"/>
-        <item x="153"/>
-        <item x="66"/>
-        <item x="142"/>
-        <item x="68"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="109"/>
-        <item x="152"/>
-        <item x="164"/>
-        <item x="19"/>
-        <item x="143"/>
-        <item x="95"/>
-        <item x="18"/>
-        <item x="136"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="137"/>
-        <item x="64"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="98"/>
-        <item x="13"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="14"/>
-        <item x="104"/>
-        <item x="65"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="141"/>
-        <item x="139"/>
-        <item x="151"/>
-        <item x="70"/>
-        <item x="6"/>
-        <item x="113"/>
-        <item x="85"/>
-        <item x="71"/>
-        <item x="86"/>
-        <item x="23"/>
-        <item x="163"/>
-        <item x="147"/>
-        <item x="3"/>
-        <item x="69"/>
-        <item x="140"/>
-        <item x="24"/>
-        <item x="150"/>
-        <item x="25"/>
-        <item x="89"/>
-        <item x="148"/>
-        <item x="138"/>
-        <item x="88"/>
-        <item x="105"/>
-        <item x="73"/>
-        <item x="22"/>
-        <item x="72"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="21"/>
-        <item x="9"/>
-        <item x="87"/>
-        <item x="149"/>
-        <item x="74"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="130"/>
-        <item x="59"/>
-        <item x="33"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="93"/>
-        <item x="157"/>
-        <item x="94"/>
-        <item x="4"/>
-        <item x="129"/>
-        <item x="135"/>
-        <item x="112"/>
-        <item x="144"/>
-        <item x="32"/>
-        <item x="160"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="165"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="91"/>
-        <item x="133"/>
-        <item x="81"/>
-        <item x="27"/>
-        <item x="47"/>
-        <item x="92"/>
-        <item x="28"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="159"/>
-        <item x="31"/>
-        <item x="158"/>
-        <item x="97"/>
-        <item x="154"/>
-        <item x="40"/>
-        <item x="55"/>
-        <item x="155"/>
-        <item x="82"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="41"/>
-        <item x="145"/>
-        <item x="166"/>
-        <item x="38"/>
-        <item x="56"/>
-        <item x="156"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="125"/>
-        <item x="39"/>
-        <item x="124"/>
-        <item x="126"/>
-        <item x="50"/>
-        <item x="122"/>
-        <item x="51"/>
-        <item x="83"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="123"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="42"/>
-        <item x="121"/>
-        <item x="96"/>
-        <item x="128"/>
-        <item x="101"/>
-        <item x="49"/>
-        <item x="106"/>
-        <item x="84"/>
-        <item x="161"/>
-        <item x="107"/>
-        <item x="131"/>
-        <item x="103"/>
-        <item x="162"/>
-        <item x="79"/>
-        <item x="99"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="100"/>
-        <item x="43"/>
-        <item x="76"/>
-        <item x="102"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="75"/>
-        <item x="132"/>
-        <item x="108"/>
-        <item x="146"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
-        <item n="All Other Brands" sd="0" x="5"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transactions" fld="2" baseField="3" baseItem="4"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3939,29 +3976,30 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3">
-        <v>1202629.1000000015</v>
+        <v>5131198.3800000073</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3969,39 +4007,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>20040.8</v>
+        <v>197337.68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3">
-        <v>19390.599999999999</v>
+        <v>189181.48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
-        <v>18900</v>
+        <v>178692.88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>18555.400000000001</v>
+        <v>78870.86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
-        <v>18362.7</v>
+        <v>70858.880000000005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4009,71 +4047,63 @@
         <v>168</v>
       </c>
       <c r="B9" s="3">
-        <v>1297878.6000000015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+        <v>5846140.1600000076</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="3">
-        <v>214325</v>
+        <v>892514</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
-        <v>4111</v>
+        <v>49051</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>3937</v>
+        <v>35937</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3">
-        <v>3748</v>
+        <v>26958</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>3681</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>3674</v>
+        <v>16579</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4111,7 @@
         <v>168</v>
       </c>
       <c r="B19" s="3">
-        <v>233476</v>
+        <v>1040940</v>
       </c>
     </row>
   </sheetData>
@@ -4091,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61679EA6-20AF-45F7-9BB5-930A3F7103FD}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4104,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4115,1517 +4145,1517 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>33452</v>
+        <v>2930282.42</v>
       </c>
       <c r="C2">
-        <v>6005</v>
+        <v>502236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>20040.8</v>
+        <v>178692.88</v>
       </c>
       <c r="C3">
-        <v>4111</v>
+        <v>49051</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>19390.599999999999</v>
+        <v>197337.68</v>
       </c>
       <c r="C4">
-        <v>3937</v>
+        <v>35937</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>18900</v>
+        <v>189181.48</v>
       </c>
       <c r="C5">
-        <v>3681</v>
+        <v>26958</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>18555.400000000001</v>
+        <v>78870.86</v>
       </c>
       <c r="C6">
-        <v>3603</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>18362.7</v>
+        <v>56050.44</v>
       </c>
       <c r="C7">
-        <v>3534</v>
+        <v>16579</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>18068</v>
+        <v>61157.05</v>
       </c>
       <c r="C8">
-        <v>3748</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>17429.599999999999</v>
+        <v>48321.46</v>
       </c>
       <c r="C9">
-        <v>3674</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>17024.8</v>
+        <v>42152.79</v>
       </c>
       <c r="C10">
-        <v>3439</v>
+        <v>12615</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>13022.2</v>
+        <v>70858.880000000005</v>
       </c>
       <c r="C11">
-        <v>2092</v>
+        <v>11352</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11750.2</v>
+        <v>44007.29</v>
       </c>
       <c r="C12">
-        <v>1739</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B13">
-        <v>11339.5</v>
+        <v>54146.18</v>
       </c>
       <c r="C13">
-        <v>1604</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B14">
-        <v>11175.6</v>
+        <v>53838.2</v>
       </c>
       <c r="C14">
-        <v>1572</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>11175.6</v>
+        <v>45453.75</v>
       </c>
       <c r="C15">
-        <v>1572</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>11175.6</v>
+        <v>42379.3</v>
       </c>
       <c r="C16">
-        <v>1572</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>11175.6</v>
+        <v>34797.56</v>
       </c>
       <c r="C17">
-        <v>1572</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>11175.6</v>
+        <v>34452.92</v>
       </c>
       <c r="C18">
-        <v>1572</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B19">
-        <v>11175.6</v>
+        <v>41238.94</v>
       </c>
       <c r="C19">
-        <v>1572</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>11175.6</v>
+        <v>40532.639999999999</v>
       </c>
       <c r="C20">
-        <v>1572</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>11175.6</v>
+        <v>19100.18</v>
       </c>
       <c r="C21">
-        <v>1572</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>11175.6</v>
+        <v>36385.339999999997</v>
       </c>
       <c r="C22">
-        <v>1572</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>11175.6</v>
+        <v>18203.75</v>
       </c>
       <c r="C23">
-        <v>1572</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B24">
-        <v>11175.6</v>
+        <v>30651.94</v>
       </c>
       <c r="C24">
-        <v>1572</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25">
-        <v>11175.6</v>
+        <v>33053.65</v>
       </c>
       <c r="C25">
-        <v>1572</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>11175.6</v>
+        <v>32215.21</v>
       </c>
       <c r="C26">
-        <v>1572</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>11175.6</v>
+        <v>16168.49</v>
       </c>
       <c r="C27">
-        <v>1572</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>11175.6</v>
+        <v>16442.810000000001</v>
       </c>
       <c r="C28">
-        <v>1572</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>11175.6</v>
+        <v>16442.810000000001</v>
       </c>
       <c r="C29">
-        <v>1572</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B30">
-        <v>11175.6</v>
+        <v>31441.89</v>
       </c>
       <c r="C30">
-        <v>1572</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B31">
-        <v>11175.6</v>
+        <v>15799.37</v>
       </c>
       <c r="C31">
-        <v>1572</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>11175.6</v>
+        <v>15695.87</v>
       </c>
       <c r="C32">
-        <v>1572</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>11175.6</v>
+        <v>15494.61</v>
       </c>
       <c r="C33">
-        <v>1572</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>11175.6</v>
+        <v>23084.66</v>
       </c>
       <c r="C34">
-        <v>1572</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B35">
-        <v>11175.6</v>
+        <v>29357.07</v>
       </c>
       <c r="C35">
-        <v>1572</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>11175.6</v>
+        <v>14182.11</v>
       </c>
       <c r="C36">
-        <v>1572</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37">
-        <v>11175.6</v>
+        <v>27625.4</v>
       </c>
       <c r="C37">
-        <v>1572</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B38">
-        <v>11175.6</v>
+        <v>27272.25</v>
       </c>
       <c r="C38">
-        <v>1572</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>11175.6</v>
+        <v>24988.27</v>
       </c>
       <c r="C39">
-        <v>1572</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B40">
-        <v>11175.6</v>
+        <v>23609.75</v>
       </c>
       <c r="C40">
-        <v>1572</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B41">
-        <v>11175.6</v>
+        <v>22903.45</v>
       </c>
       <c r="C41">
-        <v>1572</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B42">
-        <v>11175.6</v>
+        <v>22903.45</v>
       </c>
       <c r="C42">
-        <v>1572</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B43">
-        <v>11175.6</v>
+        <v>22351.14</v>
       </c>
       <c r="C43">
-        <v>1572</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B44">
-        <v>11175.6</v>
+        <v>22351.14</v>
       </c>
       <c r="C44">
-        <v>1572</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B45">
-        <v>11175.6</v>
+        <v>22351.14</v>
       </c>
       <c r="C45">
-        <v>1572</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B46">
-        <v>11175.6</v>
+        <v>22351.14</v>
       </c>
       <c r="C46">
-        <v>1572</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B47">
-        <v>11175.6</v>
+        <v>22351.14</v>
       </c>
       <c r="C47">
-        <v>1572</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B48">
-        <v>10408.700000000001</v>
+        <v>22351.14</v>
       </c>
       <c r="C48">
-        <v>1645</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>9834.5</v>
+        <v>10767.37</v>
       </c>
       <c r="C49">
-        <v>1481</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B50">
-        <v>9664.9</v>
+        <v>20266.32</v>
       </c>
       <c r="C50">
-        <v>1433</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B51">
-        <v>9090.7999999999993</v>
+        <v>20266.32</v>
       </c>
       <c r="C51">
-        <v>1269</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B52">
-        <v>9090.7999999999993</v>
+        <v>20266.32</v>
       </c>
       <c r="C52">
-        <v>1269</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53">
-        <v>9090.7999999999993</v>
+        <v>20266.32</v>
       </c>
       <c r="C53">
-        <v>1269</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>9090.7999999999993</v>
+        <v>9826.68</v>
       </c>
       <c r="C54">
-        <v>1269</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>9090.7999999999993</v>
+        <v>9252.52</v>
       </c>
       <c r="C55">
-        <v>1269</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B56">
-        <v>9090.7999999999993</v>
+        <v>18181.5</v>
       </c>
       <c r="C56">
-        <v>1269</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="B57">
-        <v>9090.7999999999993</v>
+        <v>18181.5</v>
       </c>
       <c r="C57">
-        <v>1269</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B58">
-        <v>9090.7999999999993</v>
+        <v>18181.5</v>
       </c>
       <c r="C58">
-        <v>1269</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>9090.7999999999993</v>
+        <v>8817.98</v>
       </c>
       <c r="C59">
-        <v>1269</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B60">
-        <v>9090.7999999999993</v>
+        <v>8705.6299999999992</v>
       </c>
       <c r="C60">
-        <v>1269</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="B61">
-        <v>9090.7999999999993</v>
+        <v>8508.73</v>
       </c>
       <c r="C61">
-        <v>1269</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>9090.7999999999993</v>
+        <v>8230.32</v>
       </c>
       <c r="C62">
-        <v>1269</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B63">
-        <v>9090.7999999999993</v>
+        <v>15897.52</v>
       </c>
       <c r="C63">
-        <v>1269</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B64">
-        <v>9090.7999999999993</v>
+        <v>15897.52</v>
       </c>
       <c r="C64">
-        <v>1269</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B65">
-        <v>9090.7999999999993</v>
+        <v>15544.37</v>
       </c>
       <c r="C65">
-        <v>1269</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66">
-        <v>9090.7999999999993</v>
+        <v>15544.37</v>
       </c>
       <c r="C66">
-        <v>1269</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>9090.7999999999993</v>
+        <v>7934.08</v>
       </c>
       <c r="C67">
-        <v>1269</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>9090.7999999999993</v>
+        <v>7541.17</v>
       </c>
       <c r="C68">
-        <v>1269</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="B69">
-        <v>9090.7999999999993</v>
+        <v>7527.79</v>
       </c>
       <c r="C69">
-        <v>1269</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B70">
-        <v>9090.7999999999993</v>
+        <v>7527.79</v>
       </c>
       <c r="C70">
-        <v>1269</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B71">
-        <v>9090.7999999999993</v>
+        <v>7527.79</v>
       </c>
       <c r="C71">
-        <v>1269</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>9090.7999999999993</v>
+        <v>7379.83</v>
       </c>
       <c r="C72">
-        <v>1269</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="B73">
-        <v>9090.7999999999993</v>
+        <v>7379.83</v>
       </c>
       <c r="C73">
-        <v>1269</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>9090.7999999999993</v>
+        <v>7379.83</v>
       </c>
       <c r="C74">
-        <v>1269</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>9090.7999999999993</v>
+        <v>7379.83</v>
       </c>
       <c r="C75">
-        <v>1269</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B76">
-        <v>9090.7999999999993</v>
+        <v>14165.85</v>
       </c>
       <c r="C76">
-        <v>1269</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B77">
-        <v>9090.7999999999993</v>
+        <v>7187.14</v>
       </c>
       <c r="C77">
-        <v>1269</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B78">
-        <v>9090.7999999999993</v>
+        <v>7187.14</v>
       </c>
       <c r="C78">
-        <v>1269</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="B79">
-        <v>9090.7999999999993</v>
+        <v>7187.14</v>
       </c>
       <c r="C79">
-        <v>1269</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B80">
-        <v>9090.7999999999993</v>
+        <v>13812.7</v>
       </c>
       <c r="C80">
-        <v>1269</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B81">
-        <v>9090.7999999999993</v>
+        <v>13812.7</v>
       </c>
       <c r="C81">
-        <v>1269</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B82">
-        <v>9034.5</v>
+        <v>13812.7</v>
       </c>
       <c r="C82">
-        <v>2576</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B83">
-        <v>8977.2999999999993</v>
+        <v>13812.7</v>
       </c>
       <c r="C83">
-        <v>2479</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B84">
-        <v>8977.2999999999993</v>
+        <v>13812.7</v>
       </c>
       <c r="C84">
-        <v>2479</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>8705.6</v>
+        <v>13424.33</v>
       </c>
       <c r="C85">
-        <v>2393</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B86">
-        <v>8705.6</v>
+        <v>6953.63</v>
       </c>
       <c r="C86">
-        <v>2393</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B87">
-        <v>8253.2999999999993</v>
+        <v>13260.39</v>
       </c>
       <c r="C87">
-        <v>2368</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>8230.2999999999993</v>
+        <v>13260.39</v>
       </c>
       <c r="C88">
-        <v>2271</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="B89">
-        <v>7934.1</v>
+        <v>13459.55</v>
       </c>
       <c r="C89">
-        <v>2170</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B90">
-        <v>7934.1</v>
+        <v>13459.55</v>
       </c>
       <c r="C90">
-        <v>2170</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B91">
-        <v>7934.1</v>
+        <v>13459.55</v>
       </c>
       <c r="C91">
-        <v>2170</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B92">
-        <v>7934.1</v>
+        <v>13459.55</v>
       </c>
       <c r="C92">
-        <v>2170</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B93">
-        <v>7934.1</v>
+        <v>13459.55</v>
       </c>
       <c r="C93">
-        <v>2170</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B94">
-        <v>7934.1</v>
+        <v>6759.33</v>
       </c>
       <c r="C94">
-        <v>2170</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B95">
-        <v>7934.1</v>
+        <v>11175.57</v>
       </c>
       <c r="C95">
-        <v>2170</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>7934.1</v>
+        <v>11175.57</v>
       </c>
       <c r="C96">
-        <v>2170</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B97">
-        <v>7799.4</v>
+        <v>11175.57</v>
       </c>
       <c r="C97">
-        <v>2144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="B98">
-        <v>7550.6</v>
+        <v>11175.57</v>
       </c>
       <c r="C98">
-        <v>1185</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>7541.2</v>
+        <v>11175.57</v>
       </c>
       <c r="C99">
-        <v>2063</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B100">
-        <v>7527.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C100">
-        <v>2058</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B101">
-        <v>7527.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C101">
-        <v>2058</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B102">
-        <v>7527.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C102">
-        <v>2058</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B103">
-        <v>7527.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C103">
-        <v>2058</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="B104">
-        <v>7379.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C104">
-        <v>2031</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B105">
-        <v>7379.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C105">
-        <v>2031</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B106">
-        <v>7379.8</v>
+        <v>11175.57</v>
       </c>
       <c r="C106">
-        <v>2031</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B107">
-        <v>7379.8</v>
+        <v>9834.5400000000009</v>
       </c>
       <c r="C107">
-        <v>2031</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>7187.1</v>
+        <v>4959.01</v>
       </c>
       <c r="C108">
-        <v>1962</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B109">
-        <v>7187.1</v>
+        <v>9443.9</v>
       </c>
       <c r="C109">
-        <v>1962</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>7187.1</v>
+        <v>9443.9</v>
       </c>
       <c r="C110">
-        <v>1962</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>7122.4</v>
+        <v>9443.9</v>
       </c>
       <c r="C111">
-        <v>2044</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B112">
-        <v>6953.6</v>
+        <v>9443.9</v>
       </c>
       <c r="C112">
-        <v>1894</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B113">
-        <v>6806.8</v>
+        <v>4801.82</v>
       </c>
       <c r="C113">
-        <v>973</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B114">
-        <v>6759.3</v>
+        <v>9090.75</v>
       </c>
       <c r="C114">
-        <v>1859</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B115">
-        <v>6756.2</v>
+        <v>9090.75</v>
       </c>
       <c r="C115">
-        <v>1835</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B116">
-        <v>6280.1</v>
+        <v>9090.75</v>
       </c>
       <c r="C116">
-        <v>1719</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B117">
-        <v>4959</v>
+        <v>9090.75</v>
       </c>
       <c r="C117">
-        <v>1347</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B118">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C118">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B119">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C119">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B120">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C120">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B121">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C121">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B122">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C122">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B123">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C123">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B124">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C124">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B125">
-        <v>4722</v>
+        <v>9090.75</v>
       </c>
       <c r="C125">
-        <v>670</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B126">
-        <v>4722</v>
+        <v>8737.6</v>
       </c>
       <c r="C126">
-        <v>670</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B127">
-        <v>4722</v>
+        <v>8737.6</v>
       </c>
       <c r="C127">
-        <v>670</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B128">
-        <v>4368.8</v>
+        <v>8737.6</v>
       </c>
       <c r="C128">
-        <v>599</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B129">
-        <v>4368.8</v>
+        <v>7550.56</v>
       </c>
       <c r="C129">
-        <v>599</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="B130">
-        <v>4368.8</v>
+        <v>3769.84</v>
       </c>
       <c r="C130">
-        <v>599</v>
+        <v>996</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="B131">
-        <v>4368.8</v>
+        <v>2805.53</v>
       </c>
       <c r="C131">
-        <v>599</v>
+        <v>800</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B132">
-        <v>4368.8</v>
+        <v>2633.66</v>
       </c>
       <c r="C132">
-        <v>599</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B133">
-        <v>4368.8</v>
+        <v>4721.95</v>
       </c>
       <c r="C133">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B134">
-        <v>3769.8</v>
+        <v>4721.95</v>
       </c>
       <c r="C134">
-        <v>996</v>
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B135">
-        <v>3444.1</v>
+        <v>4721.95</v>
       </c>
       <c r="C135">
-        <v>968</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B136">
-        <v>2633.7</v>
+        <v>4368.8</v>
       </c>
       <c r="C136">
-        <v>760</v>
+        <v>599</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B137">
-        <v>2400.9</v>
+        <v>4368.8</v>
       </c>
       <c r="C137">
-        <v>659</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B138">
-        <v>2084.8000000000002</v>
+        <v>4368.8</v>
       </c>
       <c r="C138">
-        <v>303</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="B139">
-        <v>2084.8000000000002</v>
+        <v>2061.7399999999998</v>
       </c>
       <c r="C139">
-        <v>303</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -5633,7 +5663,7 @@
         <v>53</v>
       </c>
       <c r="B140">
-        <v>1846.7</v>
+        <v>1846.66</v>
       </c>
       <c r="C140">
         <v>520</v>
@@ -5644,7 +5674,7 @@
         <v>52</v>
       </c>
       <c r="B141">
-        <v>1846.7</v>
+        <v>1846.66</v>
       </c>
       <c r="C141">
         <v>520</v>
@@ -5655,7 +5685,7 @@
         <v>62</v>
       </c>
       <c r="B142">
-        <v>1317.9</v>
+        <v>1317.95</v>
       </c>
       <c r="C142">
         <v>376</v>
@@ -5663,10 +5693,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B143">
-        <v>1317.9</v>
+        <v>1317.95</v>
       </c>
       <c r="C143">
         <v>376</v>
@@ -5674,10 +5704,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B144">
-        <v>1317.9</v>
+        <v>1317.95</v>
       </c>
       <c r="C144">
         <v>376</v>
@@ -5685,10 +5715,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B145">
-        <v>1317.9</v>
+        <v>1317.95</v>
       </c>
       <c r="C145">
         <v>376</v>
@@ -5696,10 +5726,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B146">
-        <v>1317.9</v>
+        <v>1317.95</v>
       </c>
       <c r="C146">
         <v>376</v>
@@ -5707,43 +5737,43 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B147">
-        <v>1317.9</v>
+        <v>1083.24</v>
       </c>
       <c r="C147">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B148">
-        <v>1317.9</v>
+        <v>2084.8200000000002</v>
       </c>
       <c r="C148">
-        <v>376</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B149">
-        <v>1083.2</v>
+        <v>2084.8200000000002</v>
       </c>
       <c r="C149">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B150">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C150">
         <v>212</v>
@@ -5751,10 +5781,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B151">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C151">
         <v>212</v>
@@ -5762,10 +5792,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B152">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C152">
         <v>212</v>
@@ -5773,10 +5803,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B153">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C153">
         <v>212</v>
@@ -5784,10 +5814,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B154">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C154">
         <v>212</v>
@@ -5795,10 +5825,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B155">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C155">
         <v>212</v>
@@ -5806,10 +5836,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B156">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C156">
         <v>212</v>
@@ -5817,10 +5847,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B157">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C157">
         <v>212</v>
@@ -5828,10 +5858,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B158">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C158">
         <v>212</v>
@@ -5839,10 +5869,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B159">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C159">
         <v>212</v>
@@ -5853,7 +5883,7 @@
         <v>69</v>
       </c>
       <c r="B160">
-        <v>743.8</v>
+        <v>743.79</v>
       </c>
       <c r="C160">
         <v>212</v>
@@ -5864,7 +5894,7 @@
         <v>77</v>
       </c>
       <c r="B161">
-        <v>574.20000000000005</v>
+        <v>574.16</v>
       </c>
       <c r="C161">
         <v>164</v>
@@ -5875,7 +5905,7 @@
         <v>76</v>
       </c>
       <c r="B162">
-        <v>574.20000000000005</v>
+        <v>574.16</v>
       </c>
       <c r="C162">
         <v>164</v>
@@ -5886,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="B163">
-        <v>574.20000000000005</v>
+        <v>574.16</v>
       </c>
       <c r="C163">
         <v>164</v>
@@ -5897,7 +5927,7 @@
         <v>44</v>
       </c>
       <c r="B164">
-        <v>427.8</v>
+        <v>427.81</v>
       </c>
       <c r="C164">
         <v>103</v>
@@ -5908,7 +5938,7 @@
         <v>49</v>
       </c>
       <c r="B165">
-        <v>373.5</v>
+        <v>373.55</v>
       </c>
       <c r="C165">
         <v>93</v>
@@ -5941,9 +5971,20 @@
         <v>48</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>2.29</v>
+      </c>
+      <c r="C169">
         <v>1</v>
       </c>
     </row>

--- a/Supplemental/Spend and Transactions Pivot Tables.xlsx
+++ b/Supplemental/Spend and Transactions Pivot Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ccf779dc7355a40/Documents/Python_Projects/Fetch Rewards Assignment - Data Analyst/Fetch-Rewards-Coding-Assignment/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5001B693-3363-454D-A2D6-652301504578}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86EC1BD-2F7B-45B2-98A2-291D52C1CC98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E62EB5EF-B05B-4D17-9C50-041E0ECA9077}"/>
   </bookViews>
@@ -20,13 +20,12 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1E22791" hidden="1">[1]Sheet1!$A$13:$A$14</definedName>
-    <definedName name="_xlcn.WorksheetConnection_SpendandTransactionsDatasetA1C1681" hidden="1">'Spend and Transactions Dataset'!$A$1:$C$168</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1E22791" hidden="1">[1]Sheet1!$A$1:$E$2279</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="58" r:id="rId4"/>
+    <pivotCache cacheId="62" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +35,6 @@
       <x15:dataModel>
         <x15:modelTables>
           <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet1!$A$1:$E$2279"/>
-          <x15:modelTable id="Range 1" name="Range 1" connection="WorksheetConnection_Spend and Transactions Dataset!$A$1:$C$168"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -57,7 +55,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{BA9FBCF6-2E76-4DC3-90A0-398A9B3B07F6}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{CBBDBD24-2CA3-403C-867B-7B568A848619}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -75,20 +73,11 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{D06D6FBD-1A79-443A-9A7C-8D9EC8B8B4B1}" name="WorksheetConnection_Spend and Transactions Dataset!$A$1:$C$168" type="102" refreshedVersion="8" minRefreshableVersion="5">
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SpendandTransactionsDatasetA1C1681"/>
-        </x15:connection>
-      </ext>
-    </extLst>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
   <si>
     <t>brandCode</t>
   </si>
@@ -597,6 +586,9 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
     <t>spend</t>
   </si>
   <si>
@@ -610,15 +602,6 @@
   </si>
   <si>
     <t>Sum of transactions</t>
-  </si>
-  <si>
-    <t>GERM-X</t>
-  </si>
-  <si>
-    <t>brands</t>
-  </si>
-  <si>
-    <t>Brands</t>
   </si>
 </sst>
 </file>
@@ -714,176 +697,172 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44882.865711226848" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="169" xr:uid="{84DAB864-A268-4FEC-82B6-48988518282E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44871.978675578706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="167" xr:uid="{06A74EA5-D71C-4373-A8A5-6C899910FBC4}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C1048576" sheet="Spend and Transactions Dataset"/>
+    <worksheetSource ref="A1:C168" sheet="Spend and Transactions Dataset"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="brandCode" numFmtId="0">
-      <sharedItems containsBlank="1" count="169">
+      <sharedItems count="167">
         <s v="NULL"/>
-        <s v="HY-VEE"/>
         <s v="BEN AND JERRYS"/>
-        <s v="KROGER"/>
         <s v="PEPSI"/>
-        <s v="KLEENEX"/>
-        <s v="KNORR"/>
-        <s v="DORITOS"/>
-        <s v="BORDEN"/>
-        <s v="KRAFT"/>
-        <s v="DOLE"/>
-        <s v="PRINGLES"/>
-        <s v="HEMPLER'S"/>
-        <s v="MARIE CALLENDER'S"/>
-        <s v="HIDDEN VALLEY"/>
         <s v="FOLGERS"/>
         <s v="KELLOGG'S"/>
+        <s v="BIGELOW"/>
+        <s v="DOLE"/>
+        <s v="KNORR"/>
+        <s v="KRAFT"/>
+        <s v="HIDDEN VALLEY"/>
+        <s v="CHEESE"/>
+        <s v="CRACKER BARREL"/>
+        <s v="CREST 3D WHITE"/>
+        <s v="CINNAMON TOAST CRUNCH"/>
+        <s v="COLEMAN NATURAL"/>
+        <s v="CHEETOS"/>
+        <s v="CHEEZ-IT"/>
+        <s v="CHEX"/>
+        <s v="CADBURY"/>
+        <s v="BRASWELL'S"/>
         <s v="BETTY CROCKER"/>
-        <s v="JELL-O"/>
-        <s v="NATURE'S PATH ORGANIC"/>
-        <s v="CHEESE"/>
-        <s v="LIGHT &amp; FIT GREEK"/>
-        <s v="CAMPBELL'S"/>
-        <s v="PRIVATE SELECTION"/>
-        <s v="PEPPERIDGE FARM"/>
-        <s v="LIGHT &amp; FIT"/>
-        <s v="LAURA'S LEAN BEEF"/>
-        <s v="JUST BARE"/>
-        <s v="KIT KAT"/>
-        <s v="TOSTITOS"/>
-        <s v="HILLSHIRE FARM"/>
-        <s v="KASHI"/>
-        <s v="BIGELOW"/>
-        <s v="CADBURY"/>
-        <s v="BUSH'S BEST"/>
-        <s v="CLASSICO"/>
-        <s v="V8"/>
-        <s v="JIMMY DEAN"/>
-        <s v="KRUSTEAZ"/>
-        <s v="JOHNSONVILLE"/>
-        <s v="REESE'S"/>
-        <s v="MCCORMICK GRILL MATES"/>
+        <s v="HEWLETT PACKARD"/>
+        <s v="HELLMANN'S/BEST FOODS"/>
+        <s v="ENERGIZER MAX"/>
+        <s v="FRESH EXPRESS"/>
+        <s v="GENERAL MILLS"/>
         <s v="KRAZY GLUE"/>
         <s v="LINDSAY"/>
         <s v="LITEHOUSE"/>
+        <s v="MARIE'S"/>
+        <s v="MARTINELLI'S"/>
+        <s v="MCCORMICK GRILL MATES"/>
+        <s v="KIT KAT"/>
+        <s v="JIMMY DEAN"/>
+        <s v="JACK LINK'S"/>
+        <s v="JELL-O"/>
+        <s v="PLANTERS"/>
+        <s v="PLAYTEX"/>
+        <s v="ORBIT"/>
+        <s v="PRINGLES"/>
+        <s v="MOUNTAIN DEW"/>
+        <s v="NUTELLA"/>
+        <s v="SIGNATURE"/>
+        <s v="TROLLI"/>
         <s v="VELVEETA"/>
-        <s v="TROLLI"/>
+        <s v="WELCH'S"/>
+        <s v="CAMPBELL'S"/>
+        <s v="LINDT"/>
+        <s v="PEPPERIDGE FARM"/>
+        <s v="SPARKLING ICE"/>
+        <s v="R.W. KNUDSEN"/>
+        <s v="REESE'S"/>
+        <s v="RITZ"/>
+        <s v="RITZ TOASTED CHIPS"/>
+        <s v="NESTLE"/>
+        <s v="NABISCO"/>
+        <s v="OREO"/>
+        <s v="LUNCHABLES"/>
+        <s v="MARIE CALLENDER'S"/>
+        <s v="JENNIE-O"/>
+        <s v="JOHN SOULES FOODS"/>
+        <s v="JOHNSONVILLE"/>
+        <s v="CLASSICO"/>
+        <s v="COKE"/>
+        <s v="CHEERIOS"/>
+        <s v="COOL WHIP"/>
+        <s v="ARROWHEAD"/>
+        <s v="7UP"/>
+        <s v="BEAR CREEK COUNTRY KITCHENS"/>
+        <s v="FRANZ"/>
+        <s v="DIET COKE"/>
+        <s v="EDWARDS"/>
+        <s v="HEMPLER'S"/>
+        <s v="HAWAIIAN"/>
+        <s v="HORMEL"/>
+        <s v="WISHBONE"/>
+        <s v="V8"/>
+        <s v="TOLL HOUSE"/>
+        <s v="TOP FLIGHT"/>
+        <s v="THOMAS'"/>
+        <s v="KLEENEX"/>
+        <s v="LIGHT &amp; FIT GREEK"/>
+        <s v="NATURE'S PATH ORGANIC"/>
+        <s v="RICE-A-RONI"/>
         <s v="STARKIST"/>
-        <s v="JACK LINK'S"/>
-        <s v="CINNAMON TOAST CRUNCH"/>
-        <s v="CHEEZ-IT"/>
-        <s v="GENERAL MILLS"/>
+        <s v="DORITOS"/>
+        <s v="EL MONTEREY"/>
+        <s v="HILLSHIRE FARM"/>
         <s v="HARVEST SNAPS"/>
         <s v="GREEN GIANT"/>
-        <s v="CHEERIOS"/>
-        <s v="NESTLE"/>
-        <s v="SPARKLING ICE"/>
-        <s v="DOLE CHILLED FRUIT JUICES"/>
-        <s v="RICE-A-RONI"/>
+        <s v="CAL-ORGANIC FARMS"/>
+        <s v="LAURA'S LEAN BEEF"/>
         <s v="LIPTON"/>
-        <s v="EL MONTEREY"/>
-        <s v="MARTINELLI'S"/>
-        <s v="WELCH'S"/>
-        <s v="NUTELLA"/>
-        <s v="PLANTERS"/>
-        <s v="CAL-ORGANIC FARMS"/>
+        <s v="JUST BARE"/>
+        <s v="KASHI"/>
+        <s v="BUSH'S BEST"/>
+        <s v="SIMPLE TRUTH ORGANIC"/>
         <s v="MISSION"/>
         <s v="CHICKEN OF THE SEA"/>
+        <s v="TIC TAC"/>
+        <s v="TOSTITOS"/>
         <s v="SO DELICIOUS"/>
-        <s v="TIC TAC"/>
+        <s v="VAN DE KAMP'S"/>
         <s v="TEMPTATIONS"/>
-        <s v="VAN DE KAMP'S"/>
         <s v="CONNIE'S PIZZA"/>
         <s v="HATCH FARMS"/>
+        <s v="SPECIAL K"/>
+        <s v="SWANSON"/>
+        <s v="YUBAN"/>
+        <s v="BORDEN"/>
+        <s v="ADVIL"/>
+        <s v="KROGER"/>
+        <s v="KIKKOMAN"/>
+        <s v="DOLE CHILLED FRUIT JUICES"/>
+        <s v="HY-VEE"/>
+        <s v="HY-VEE SELECT"/>
+        <s v="HERITAGE FARM"/>
+        <s v="HERSHEY'S KISSES"/>
         <s v="AMERICAN BEAUTY"/>
-        <s v="YUBAN"/>
-        <s v="SWANSON"/>
-        <s v="SPECIAL K"/>
-        <s v="WISHBONE"/>
-        <s v="NABISCO"/>
-        <s v="OREO"/>
-        <s v="RITZ"/>
-        <s v="RITZ TOASTED CHIPS"/>
-        <s v="CRACKER BARREL"/>
-        <s v="ADVIL"/>
-        <s v="BRASWELL'S"/>
-        <s v="HELLMANN'S/BEST FOODS"/>
-        <s v="HORMEL"/>
-        <s v="HAWAIIAN"/>
-        <s v="JENNIE-O"/>
-        <s v="JOHN SOULES FOODS"/>
-        <s v="THOMAS'"/>
-        <s v="KIKKOMAN"/>
-        <s v="MARIE'S"/>
-        <s v="SIGNATURE"/>
-        <s v="PLAYTEX"/>
-        <s v="ORBIT"/>
-        <s v="MOUNTAIN DEW"/>
-        <s v="HEWLETT PACKARD"/>
-        <s v="ENERGIZER MAX"/>
-        <s v="FRESH EXPRESS"/>
-        <s v="COLEMAN NATURAL"/>
-        <s v="CREST 3D WHITE"/>
-        <s v="CHEX"/>
-        <s v="CHEETOS"/>
-        <s v="LINDT"/>
-        <s v="HY-VEE SELECT"/>
-        <s v="HERSHEY'S KISSES"/>
+        <s v="KRUSTEAZ"/>
+        <s v="SHOPRITE"/>
+        <s v="SIMPLE TRUTH"/>
+        <s v="RAGU"/>
+        <s v="ROSARITA"/>
+        <s v="PRIVATE SELECTION"/>
         <s v="PREGO"/>
-        <s v="RAGU"/>
-        <s v="SHOPRITE"/>
-        <s v="KETTLE BRAND"/>
-        <s v="LUNCHABLES"/>
-        <s v="R.W. KNUDSEN"/>
-        <s v="DIET COKE"/>
-        <s v="EDWARDS"/>
-        <s v="FRANZ"/>
-        <s v="COOL WHIP"/>
-        <s v="COKE"/>
-        <s v="BEAR CREEK COUNTRY KITCHENS"/>
-        <s v="ARROWHEAD"/>
-        <s v="7UP"/>
-        <s v="TOLL HOUSE"/>
-        <s v="TOP FLIGHT"/>
-        <s v="TAYLOR FARMS"/>
+        <s v="QUAKER"/>
+        <s v="SCHWEBEL'S"/>
         <s v="SMITHFIELD"/>
         <s v="KERRYGOLD"/>
-        <s v="SIMPLE TRUTH ORGANIC"/>
+        <s v="JELLY BELLY"/>
+        <s v="TAYLOR FARMS"/>
         <s v="WONDERFUL"/>
-        <s v="OLD EL PASO"/>
+        <s v="LIGHT &amp; FIT"/>
         <s v="KLARBRUNN"/>
-        <s v="SIMPLE TRUTH"/>
-        <s v="ROSARITA"/>
-        <s v="HERITAGE FARM"/>
-        <s v="SCHWEBEL'S"/>
-        <s v="QUAKER"/>
-        <s v="JELLY BELLY"/>
-        <s v="BUNNY"/>
+        <s v="KETTLE BRAND"/>
+        <s v="CALIFIA FARMS"/>
+        <s v="CARAMELLO"/>
         <s v="HANOVER"/>
         <s v="DANNON"/>
         <s v="FRENCH'S"/>
+        <s v="CRISPIX"/>
         <s v="AZTECA"/>
-        <s v="CRISPIX"/>
+        <s v="BUNNY"/>
         <s v="KING ARTHUR FLOUR"/>
+        <s v="OLD EL PASO"/>
         <s v="ZESTA"/>
         <s v="FLORIDA'S NATURAL"/>
-        <s v="CARAMELLO"/>
-        <s v="CALIFIA FARMS"/>
-        <s v="BOTA BOX"/>
-        <s v="ARNOLD"/>
         <s v="GREY POUPON"/>
         <s v="HONEY BUNCHES OF OATS"/>
         <s v="FRONTERA"/>
         <s v="DARE"/>
+        <s v="BOTA BOX"/>
+        <s v="ARNOLD"/>
+        <s v="MORTON"/>
+        <s v="NATURE VALLEY"/>
+        <s v="ORGANIC ROOT STIMULATOR"/>
         <s v="KARO"/>
-        <s v="ORGANIC ROOT STIMULATOR"/>
-        <s v="NATURE VALLEY"/>
-        <s v="MORTON"/>
         <s v="MERKT'S"/>
         <s v="MCCORMICK"/>
         <s v="KITCHEN BASICS"/>
@@ -893,29 +872,25 @@
         <s v="BRAND"/>
         <s v="KLONDIKE"/>
         <s v="ORAL-B GLIDE"/>
-        <s v="GERM-X"/>
-        <m/>
       </sharedItems>
       <fieldGroup par="3"/>
     </cacheField>
     <cacheField name="spend" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.29" maxValue="2930282.42"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4" maxValue="33452"/>
     </cacheField>
     <cacheField name="transactions" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="502236"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6005"/>
     </cacheField>
     <cacheField name="brandCode2" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <discretePr count="169">
+        <discretePr count="167">
           <x v="5"/>
           <x v="0"/>
           <x v="1"/>
           <x v="2"/>
+          <x v="5"/>
+          <x v="5"/>
           <x v="3"/>
-          <x v="5"/>
-          <x v="5"/>
-          <x v="5"/>
-          <x v="5"/>
           <x v="4"/>
           <x v="5"/>
           <x v="5"/>
@@ -1078,11 +1053,11 @@
           <x v="5"/>
         </discretePr>
         <groupItems count="6">
-          <s v="HY-VEE"/>
           <s v="BEN AND JERRYS"/>
-          <s v="KROGER"/>
           <s v="PEPSI"/>
-          <s v="KRAFT"/>
+          <s v="FOLGERS"/>
+          <s v="DOLE"/>
+          <s v="KNORR"/>
           <s v="Group1"/>
         </groupItems>
       </fieldGroup>
@@ -1097,171 +1072,171 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44882.904060879628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{D65E0CB6-B348-472A-9297-DF01FB611803}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Selvyn Yovany Martinez Barahona" refreshedDate="44872.769153703703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{84DAB864-A268-4FEC-82B6-48988518282E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C169" sheet="Spend and Transactions Dataset"/>
+    <worksheetSource ref="A1:C1048576" sheet="Spend and Transactions Dataset"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="brandCode" numFmtId="0">
-      <sharedItems count="168">
+      <sharedItems containsBlank="1" count="168">
         <s v="NULL"/>
-        <s v="HY-VEE"/>
         <s v="BEN AND JERRYS"/>
-        <s v="KROGER"/>
         <s v="PEPSI"/>
-        <s v="KLEENEX"/>
-        <s v="KNORR"/>
-        <s v="DORITOS"/>
-        <s v="BORDEN"/>
-        <s v="KRAFT"/>
-        <s v="DOLE"/>
-        <s v="PRINGLES"/>
-        <s v="HEMPLER'S"/>
-        <s v="MARIE CALLENDER'S"/>
-        <s v="HIDDEN VALLEY"/>
         <s v="FOLGERS"/>
         <s v="KELLOGG'S"/>
+        <s v="BIGELOW"/>
+        <s v="DOLE"/>
+        <s v="KNORR"/>
+        <s v="KRAFT"/>
+        <s v="HIDDEN VALLEY"/>
+        <s v="CHEESE"/>
+        <s v="CRACKER BARREL"/>
+        <s v="CREST 3D WHITE"/>
+        <s v="CINNAMON TOAST CRUNCH"/>
+        <s v="COLEMAN NATURAL"/>
+        <s v="CHEETOS"/>
+        <s v="CHEEZ-IT"/>
+        <s v="CHEX"/>
+        <s v="CADBURY"/>
+        <s v="BRASWELL'S"/>
         <s v="BETTY CROCKER"/>
-        <s v="JELL-O"/>
-        <s v="NATURE'S PATH ORGANIC"/>
-        <s v="CHEESE"/>
-        <s v="LIGHT &amp; FIT GREEK"/>
-        <s v="CAMPBELL'S"/>
-        <s v="PRIVATE SELECTION"/>
-        <s v="PEPPERIDGE FARM"/>
-        <s v="LIGHT &amp; FIT"/>
-        <s v="LAURA'S LEAN BEEF"/>
-        <s v="JUST BARE"/>
-        <s v="KIT KAT"/>
-        <s v="TOSTITOS"/>
-        <s v="HILLSHIRE FARM"/>
-        <s v="KASHI"/>
-        <s v="BIGELOW"/>
-        <s v="CADBURY"/>
-        <s v="BUSH'S BEST"/>
-        <s v="CLASSICO"/>
-        <s v="V8"/>
-        <s v="JIMMY DEAN"/>
-        <s v="KRUSTEAZ"/>
-        <s v="JOHNSONVILLE"/>
-        <s v="REESE'S"/>
-        <s v="MCCORMICK GRILL MATES"/>
+        <s v="HEWLETT PACKARD"/>
+        <s v="HELLMANN'S/BEST FOODS"/>
+        <s v="ENERGIZER MAX"/>
+        <s v="FRESH EXPRESS"/>
+        <s v="GENERAL MILLS"/>
         <s v="KRAZY GLUE"/>
         <s v="LINDSAY"/>
         <s v="LITEHOUSE"/>
+        <s v="MARIE'S"/>
+        <s v="MARTINELLI'S"/>
+        <s v="MCCORMICK GRILL MATES"/>
+        <s v="KIT KAT"/>
+        <s v="JIMMY DEAN"/>
+        <s v="JACK LINK'S"/>
+        <s v="JELL-O"/>
+        <s v="PLANTERS"/>
+        <s v="PLAYTEX"/>
+        <s v="ORBIT"/>
+        <s v="PRINGLES"/>
+        <s v="MOUNTAIN DEW"/>
+        <s v="NUTELLA"/>
+        <s v="SIGNATURE"/>
+        <s v="TROLLI"/>
         <s v="VELVEETA"/>
-        <s v="TROLLI"/>
+        <s v="WELCH'S"/>
+        <s v="CAMPBELL'S"/>
+        <s v="LINDT"/>
+        <s v="PEPPERIDGE FARM"/>
+        <s v="SPARKLING ICE"/>
+        <s v="R.W. KNUDSEN"/>
+        <s v="REESE'S"/>
+        <s v="RITZ"/>
+        <s v="RITZ TOASTED CHIPS"/>
+        <s v="NESTLE"/>
+        <s v="NABISCO"/>
+        <s v="OREO"/>
+        <s v="LUNCHABLES"/>
+        <s v="MARIE CALLENDER'S"/>
+        <s v="JENNIE-O"/>
+        <s v="JOHN SOULES FOODS"/>
+        <s v="JOHNSONVILLE"/>
+        <s v="CLASSICO"/>
+        <s v="COKE"/>
+        <s v="CHEERIOS"/>
+        <s v="COOL WHIP"/>
+        <s v="ARROWHEAD"/>
+        <s v="7UP"/>
+        <s v="BEAR CREEK COUNTRY KITCHENS"/>
+        <s v="FRANZ"/>
+        <s v="DIET COKE"/>
+        <s v="EDWARDS"/>
+        <s v="HEMPLER'S"/>
+        <s v="HAWAIIAN"/>
+        <s v="HORMEL"/>
+        <s v="WISHBONE"/>
+        <s v="V8"/>
+        <s v="TOLL HOUSE"/>
+        <s v="TOP FLIGHT"/>
+        <s v="THOMAS'"/>
+        <s v="KLEENEX"/>
+        <s v="LIGHT &amp; FIT GREEK"/>
+        <s v="NATURE'S PATH ORGANIC"/>
+        <s v="RICE-A-RONI"/>
         <s v="STARKIST"/>
-        <s v="JACK LINK'S"/>
-        <s v="CINNAMON TOAST CRUNCH"/>
-        <s v="CHEEZ-IT"/>
-        <s v="GENERAL MILLS"/>
+        <s v="DORITOS"/>
+        <s v="EL MONTEREY"/>
+        <s v="HILLSHIRE FARM"/>
         <s v="HARVEST SNAPS"/>
         <s v="GREEN GIANT"/>
-        <s v="CHEERIOS"/>
-        <s v="NESTLE"/>
-        <s v="SPARKLING ICE"/>
-        <s v="DOLE CHILLED FRUIT JUICES"/>
-        <s v="RICE-A-RONI"/>
+        <s v="CAL-ORGANIC FARMS"/>
+        <s v="LAURA'S LEAN BEEF"/>
         <s v="LIPTON"/>
-        <s v="EL MONTEREY"/>
-        <s v="MARTINELLI'S"/>
-        <s v="WELCH'S"/>
-        <s v="NUTELLA"/>
-        <s v="PLANTERS"/>
-        <s v="CAL-ORGANIC FARMS"/>
+        <s v="JUST BARE"/>
+        <s v="KASHI"/>
+        <s v="BUSH'S BEST"/>
+        <s v="SIMPLE TRUTH ORGANIC"/>
         <s v="MISSION"/>
         <s v="CHICKEN OF THE SEA"/>
+        <s v="TIC TAC"/>
+        <s v="TOSTITOS"/>
         <s v="SO DELICIOUS"/>
-        <s v="TIC TAC"/>
+        <s v="VAN DE KAMP'S"/>
         <s v="TEMPTATIONS"/>
-        <s v="VAN DE KAMP'S"/>
         <s v="CONNIE'S PIZZA"/>
         <s v="HATCH FARMS"/>
+        <s v="SPECIAL K"/>
+        <s v="SWANSON"/>
+        <s v="YUBAN"/>
+        <s v="BORDEN"/>
+        <s v="ADVIL"/>
+        <s v="KROGER"/>
+        <s v="KIKKOMAN"/>
+        <s v="DOLE CHILLED FRUIT JUICES"/>
+        <s v="HY-VEE"/>
+        <s v="HY-VEE SELECT"/>
+        <s v="HERITAGE FARM"/>
+        <s v="HERSHEY'S KISSES"/>
         <s v="AMERICAN BEAUTY"/>
-        <s v="YUBAN"/>
-        <s v="SWANSON"/>
-        <s v="SPECIAL K"/>
-        <s v="WISHBONE"/>
-        <s v="NABISCO"/>
-        <s v="OREO"/>
-        <s v="RITZ"/>
-        <s v="RITZ TOASTED CHIPS"/>
-        <s v="CRACKER BARREL"/>
-        <s v="ADVIL"/>
-        <s v="BRASWELL'S"/>
-        <s v="HELLMANN'S/BEST FOODS"/>
-        <s v="HORMEL"/>
-        <s v="HAWAIIAN"/>
-        <s v="JENNIE-O"/>
-        <s v="JOHN SOULES FOODS"/>
-        <s v="THOMAS'"/>
-        <s v="KIKKOMAN"/>
-        <s v="MARIE'S"/>
-        <s v="SIGNATURE"/>
-        <s v="PLAYTEX"/>
-        <s v="ORBIT"/>
-        <s v="MOUNTAIN DEW"/>
-        <s v="HEWLETT PACKARD"/>
-        <s v="ENERGIZER MAX"/>
-        <s v="FRESH EXPRESS"/>
-        <s v="COLEMAN NATURAL"/>
-        <s v="CREST 3D WHITE"/>
-        <s v="CHEX"/>
-        <s v="CHEETOS"/>
-        <s v="LINDT"/>
-        <s v="HY-VEE SELECT"/>
-        <s v="HERSHEY'S KISSES"/>
+        <s v="KRUSTEAZ"/>
+        <s v="SHOPRITE"/>
+        <s v="SIMPLE TRUTH"/>
+        <s v="RAGU"/>
+        <s v="ROSARITA"/>
+        <s v="PRIVATE SELECTION"/>
         <s v="PREGO"/>
-        <s v="RAGU"/>
-        <s v="SHOPRITE"/>
-        <s v="KETTLE BRAND"/>
-        <s v="LUNCHABLES"/>
-        <s v="R.W. KNUDSEN"/>
-        <s v="DIET COKE"/>
-        <s v="EDWARDS"/>
-        <s v="FRANZ"/>
-        <s v="COOL WHIP"/>
-        <s v="COKE"/>
-        <s v="BEAR CREEK COUNTRY KITCHENS"/>
-        <s v="ARROWHEAD"/>
-        <s v="7UP"/>
-        <s v="TOLL HOUSE"/>
-        <s v="TOP FLIGHT"/>
-        <s v="TAYLOR FARMS"/>
+        <s v="QUAKER"/>
+        <s v="SCHWEBEL'S"/>
         <s v="SMITHFIELD"/>
         <s v="KERRYGOLD"/>
-        <s v="SIMPLE TRUTH ORGANIC"/>
+        <s v="JELLY BELLY"/>
+        <s v="TAYLOR FARMS"/>
         <s v="WONDERFUL"/>
-        <s v="OLD EL PASO"/>
+        <s v="LIGHT &amp; FIT"/>
         <s v="KLARBRUNN"/>
-        <s v="SIMPLE TRUTH"/>
-        <s v="ROSARITA"/>
-        <s v="HERITAGE FARM"/>
-        <s v="SCHWEBEL'S"/>
-        <s v="QUAKER"/>
-        <s v="JELLY BELLY"/>
-        <s v="BUNNY"/>
+        <s v="KETTLE BRAND"/>
+        <s v="CALIFIA FARMS"/>
+        <s v="CARAMELLO"/>
         <s v="HANOVER"/>
         <s v="DANNON"/>
         <s v="FRENCH'S"/>
+        <s v="CRISPIX"/>
         <s v="AZTECA"/>
-        <s v="CRISPIX"/>
+        <s v="BUNNY"/>
         <s v="KING ARTHUR FLOUR"/>
+        <s v="OLD EL PASO"/>
         <s v="ZESTA"/>
         <s v="FLORIDA'S NATURAL"/>
-        <s v="CARAMELLO"/>
-        <s v="CALIFIA FARMS"/>
-        <s v="BOTA BOX"/>
-        <s v="ARNOLD"/>
         <s v="GREY POUPON"/>
         <s v="HONEY BUNCHES OF OATS"/>
         <s v="FRONTERA"/>
         <s v="DARE"/>
+        <s v="BOTA BOX"/>
+        <s v="ARNOLD"/>
+        <s v="MORTON"/>
+        <s v="NATURE VALLEY"/>
+        <s v="ORGANIC ROOT STIMULATOR"/>
         <s v="KARO"/>
-        <s v="ORGANIC ROOT STIMULATOR"/>
-        <s v="NATURE VALLEY"/>
-        <s v="MORTON"/>
         <s v="MERKT'S"/>
         <s v="MCCORMICK"/>
         <s v="KITCHEN BASICS"/>
@@ -1271,15 +1246,15 @@
         <s v="BRAND"/>
         <s v="KLONDIKE"/>
         <s v="ORAL-B GLIDE"/>
-        <s v="GERM-X"/>
+        <m/>
       </sharedItems>
       <fieldGroup par="3"/>
     </cacheField>
     <cacheField name="spend" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.29" maxValue="2930282.42"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="33452"/>
     </cacheField>
     <cacheField name="transactions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="502236"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6005"/>
     </cacheField>
     <cacheField name="brandCode2" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -1454,11 +1429,11 @@
           <x v="5"/>
         </discretePr>
         <groupItems count="6">
-          <s v="HY-VEE"/>
           <s v="BEN AND JERRYS"/>
-          <s v="KROGER"/>
           <s v="PEPSI"/>
-          <s v="KLEENEX"/>
+          <s v="FOLGERS"/>
+          <s v="KELLOGG'S"/>
+          <s v="BIGELOW"/>
           <s v="Group1"/>
         </groupItems>
       </fieldGroup>
@@ -1473,825 +1448,825 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="169">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="167">
   <r>
     <x v="0"/>
-    <n v="2930282.42"/>
-    <n v="502236"/>
+    <n v="33452"/>
+    <n v="6005"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="178692.88"/>
-    <n v="49051"/>
+    <n v="20040.8"/>
+    <n v="4111"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="197337.68"/>
-    <n v="35937"/>
+    <n v="19390.599999999999"/>
+    <n v="3937"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="189181.48"/>
-    <n v="26958"/>
+    <n v="18900"/>
+    <n v="3681"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="78870.86"/>
-    <n v="19901"/>
+    <n v="18555.400000000001"/>
+    <n v="3603"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="56050.44"/>
-    <n v="16579"/>
+    <n v="18362.7"/>
+    <n v="3534"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="61157.05"/>
-    <n v="16250"/>
+    <n v="18068"/>
+    <n v="3748"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="48321.46"/>
-    <n v="14525"/>
+    <n v="17429.599999999999"/>
+    <n v="3674"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="42152.79"/>
-    <n v="12615"/>
+    <n v="17024.8"/>
+    <n v="3439"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="70858.880000000005"/>
-    <n v="11352"/>
+    <n v="13022.2"/>
+    <n v="2092"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="44007.29"/>
-    <n v="9608"/>
+    <n v="11750.2"/>
+    <n v="1739"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="54146.18"/>
-    <n v="7628"/>
+    <n v="11339.5"/>
+    <n v="1604"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="53838.2"/>
-    <n v="7472"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="45453.75"/>
-    <n v="6345"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="42379.3"/>
-    <n v="6202"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="34797.56"/>
-    <n v="5923"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="34452.92"/>
-    <n v="5845"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="41238.94"/>
-    <n v="5824"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="18"/>
-    <n v="40532.639999999999"/>
-    <n v="5682"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="19"/>
-    <n v="19100.18"/>
-    <n v="5293"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="20"/>
-    <n v="36385.339999999997"/>
-    <n v="5179"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="21"/>
-    <n v="18203.75"/>
-    <n v="5030"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="22"/>
-    <n v="30651.94"/>
-    <n v="4771"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="23"/>
-    <n v="33053.65"/>
-    <n v="4690"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="24"/>
-    <n v="32215.21"/>
-    <n v="4570"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="25"/>
-    <n v="16168.49"/>
-    <n v="4565"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="26"/>
-    <n v="16442.810000000001"/>
-    <n v="4507"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="27"/>
-    <n v="16442.810000000001"/>
-    <n v="4507"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="28"/>
-    <n v="31441.89"/>
-    <n v="4413"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="29"/>
-    <n v="15799.37"/>
-    <n v="4328"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="30"/>
-    <n v="15695.87"/>
-    <n v="4299"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="31"/>
-    <n v="15494.61"/>
-    <n v="4247"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="32"/>
-    <n v="23084.66"/>
-    <n v="4204"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="33"/>
-    <n v="29357.07"/>
-    <n v="4110"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="34"/>
-    <n v="14182.11"/>
-    <n v="3886"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="35"/>
-    <n v="27625.4"/>
-    <n v="3878"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="36"/>
-    <n v="27272.25"/>
-    <n v="3807"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="37"/>
-    <n v="24988.27"/>
-    <n v="3511"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="38"/>
-    <n v="23609.75"/>
-    <n v="3350"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="39"/>
-    <n v="22903.45"/>
-    <n v="3208"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="40"/>
-    <n v="22903.45"/>
-    <n v="3208"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="41"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="42"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="43"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="44"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="45"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="46"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="10408.700000000001"/>
+    <n v="1645"/>
   </r>
   <r>
     <x v="47"/>
-    <n v="10767.37"/>
-    <n v="2981"/>
+    <n v="9834.5"/>
+    <n v="1481"/>
   </r>
   <r>
     <x v="48"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9664.9"/>
+    <n v="1433"/>
   </r>
   <r>
     <x v="49"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="50"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="51"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="52"/>
-    <n v="9826.68"/>
-    <n v="2713"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="53"/>
-    <n v="9252.52"/>
-    <n v="2549"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="54"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="55"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="56"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="57"/>
-    <n v="8817.98"/>
-    <n v="2423"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="58"/>
-    <n v="8705.6299999999992"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="9034.5"/>
+    <n v="2576"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="8977.2999999999993"/>
+    <n v="2479"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="8977.2999999999993"/>
+    <n v="2479"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="8705.6"/>
     <n v="2393"/>
   </r>
   <r>
-    <x v="59"/>
-    <n v="8508.73"/>
-    <n v="2337"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <n v="8230.32"/>
+    <x v="84"/>
+    <n v="8705.6"/>
+    <n v="2393"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="8253.2999999999993"/>
+    <n v="2368"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="8230.2999999999993"/>
     <n v="2271"/>
   </r>
   <r>
-    <x v="61"/>
-    <n v="15897.52"/>
-    <n v="2242"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="15897.52"/>
-    <n v="2242"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="15544.37"/>
-    <n v="2171"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="15544.37"/>
-    <n v="2171"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="7934.08"/>
+    <x v="87"/>
+    <n v="7934.1"/>
     <n v="2170"/>
   </r>
   <r>
-    <x v="66"/>
-    <n v="7541.17"/>
+    <x v="88"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <n v="7799.4"/>
+    <n v="2144"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <n v="7550.6"/>
+    <n v="1185"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <n v="7541.2"/>
     <n v="2063"/>
   </r>
   <r>
-    <x v="67"/>
-    <n v="7527.79"/>
+    <x v="98"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="68"/>
-    <n v="7527.79"/>
+    <x v="99"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="69"/>
-    <n v="7527.79"/>
+    <x v="100"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="70"/>
-    <n v="7379.83"/>
+    <x v="101"/>
+    <n v="7527.8"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="71"/>
-    <n v="7379.83"/>
+    <x v="103"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="72"/>
-    <n v="7379.83"/>
+    <x v="104"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="73"/>
-    <n v="7379.83"/>
+    <x v="105"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="74"/>
-    <n v="14165.85"/>
-    <n v="2010"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <n v="7187.14"/>
+    <x v="106"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="76"/>
-    <n v="7187.14"/>
+    <x v="107"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="77"/>
-    <n v="7187.14"/>
+    <x v="108"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="78"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <n v="13424.33"/>
-    <n v="1907"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <n v="6953.63"/>
+    <x v="109"/>
+    <n v="7122.4"/>
+    <n v="2044"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="6953.6"/>
     <n v="1894"/>
   </r>
   <r>
-    <x v="85"/>
-    <n v="13260.39"/>
-    <n v="1875"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <n v="13260.39"/>
-    <n v="1875"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <n v="6759.33"/>
+    <x v="111"/>
+    <n v="6806.8"/>
+    <n v="973"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="6759.3"/>
     <n v="1859"/>
   </r>
   <r>
-    <x v="93"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <n v="9834.5400000000009"/>
-    <n v="1481"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <n v="4959.01"/>
+    <x v="113"/>
+    <n v="6756.2"/>
+    <n v="1835"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <n v="6280.1"/>
+    <n v="1719"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <n v="4959"/>
     <n v="1347"/>
   </r>
   <r>
-    <x v="107"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <n v="4801.82"/>
-    <n v="1318"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
     <x v="116"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="117"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="118"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="119"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="120"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="121"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="122"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="123"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="124"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="125"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="126"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <n v="7550.56"/>
-    <n v="1185"/>
-  </r>
-  <r>
-    <x v="128"/>
-    <n v="3769.84"/>
-    <n v="996"/>
-  </r>
-  <r>
-    <x v="129"/>
-    <n v="2805.53"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <n v="2633.66"/>
-    <n v="760"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="134"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="135"/>
+    <x v="127"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="136"/>
+    <x v="128"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
+    <x v="129"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <n v="3769.8"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <n v="3444.1"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <n v="2633.7"/>
+    <n v="760"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <n v="2400.9"/>
+    <n v="659"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <n v="2084.8000000000002"/>
+    <n v="303"/>
+  </r>
+  <r>
     <x v="137"/>
-    <n v="2061.7399999999998"/>
-    <n v="588"/>
+    <n v="2084.8000000000002"/>
+    <n v="303"/>
   </r>
   <r>
     <x v="138"/>
-    <n v="1846.66"/>
+    <n v="1846.7"/>
     <n v="520"/>
   </r>
   <r>
     <x v="139"/>
-    <n v="1846.66"/>
+    <n v="1846.7"/>
     <n v="520"/>
   </r>
   <r>
     <x v="140"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="141"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="142"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="143"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="144"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="145"/>
-    <n v="1083.24"/>
+    <n v="1317.9"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="1317.9"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <n v="1083.2"/>
     <n v="341"/>
   </r>
   <r>
-    <x v="146"/>
-    <n v="2084.8200000000002"/>
-    <n v="303"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <n v="2084.8200000000002"/>
-    <n v="303"/>
-  </r>
-  <r>
     <x v="148"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="149"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="150"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="151"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="152"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="153"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="154"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="155"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="158"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="159"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="160"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="161"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="162"/>
-    <n v="427.81"/>
+    <n v="427.8"/>
     <n v="103"/>
   </r>
   <r>
     <x v="163"/>
-    <n v="373.55"/>
+    <n v="373.5"/>
     <n v="93"/>
   </r>
   <r>
@@ -2306,18 +2281,8 @@
   </r>
   <r>
     <x v="166"/>
-    <n v="3.99"/>
+    <n v="4"/>
     <n v="1"/>
-  </r>
-  <r>
-    <x v="167"/>
-    <n v="2.29"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="168"/>
-    <m/>
-    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2326,822 +2291,822 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
   <r>
     <x v="0"/>
-    <n v="2930282.42"/>
-    <n v="502236"/>
+    <n v="33452"/>
+    <n v="6005"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="178692.88"/>
-    <n v="49051"/>
+    <n v="20040.8"/>
+    <n v="4111"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="197337.68"/>
-    <n v="35937"/>
+    <n v="19390.599999999999"/>
+    <n v="3937"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="189181.48"/>
-    <n v="26958"/>
+    <n v="18900"/>
+    <n v="3681"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="78870.86"/>
-    <n v="19901"/>
+    <n v="18555.400000000001"/>
+    <n v="3603"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="56050.44"/>
-    <n v="16579"/>
+    <n v="18362.7"/>
+    <n v="3534"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="61157.05"/>
-    <n v="16250"/>
+    <n v="18068"/>
+    <n v="3748"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="48321.46"/>
-    <n v="14525"/>
+    <n v="17429.599999999999"/>
+    <n v="3674"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="42152.79"/>
-    <n v="12615"/>
+    <n v="17024.8"/>
+    <n v="3439"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="70858.880000000005"/>
-    <n v="11352"/>
+    <n v="13022.2"/>
+    <n v="2092"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="44007.29"/>
-    <n v="9608"/>
+    <n v="11750.2"/>
+    <n v="1739"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="54146.18"/>
-    <n v="7628"/>
+    <n v="11339.5"/>
+    <n v="1604"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="53838.2"/>
-    <n v="7472"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="45453.75"/>
-    <n v="6345"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="42379.3"/>
-    <n v="6202"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="34797.56"/>
-    <n v="5923"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="34452.92"/>
-    <n v="5845"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="41238.94"/>
-    <n v="5824"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="18"/>
-    <n v="40532.639999999999"/>
-    <n v="5682"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="19"/>
-    <n v="19100.18"/>
-    <n v="5293"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="20"/>
-    <n v="36385.339999999997"/>
-    <n v="5179"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="21"/>
-    <n v="18203.75"/>
-    <n v="5030"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="22"/>
-    <n v="30651.94"/>
-    <n v="4771"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="23"/>
-    <n v="33053.65"/>
-    <n v="4690"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="24"/>
-    <n v="32215.21"/>
-    <n v="4570"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="25"/>
-    <n v="16168.49"/>
-    <n v="4565"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="26"/>
-    <n v="16442.810000000001"/>
-    <n v="4507"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="27"/>
-    <n v="16442.810000000001"/>
-    <n v="4507"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="28"/>
-    <n v="31441.89"/>
-    <n v="4413"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="29"/>
-    <n v="15799.37"/>
-    <n v="4328"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="30"/>
-    <n v="15695.87"/>
-    <n v="4299"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="31"/>
-    <n v="15494.61"/>
-    <n v="4247"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="32"/>
-    <n v="23084.66"/>
-    <n v="4204"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="33"/>
-    <n v="29357.07"/>
-    <n v="4110"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="34"/>
-    <n v="14182.11"/>
-    <n v="3886"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="35"/>
-    <n v="27625.4"/>
-    <n v="3878"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="36"/>
-    <n v="27272.25"/>
-    <n v="3807"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="37"/>
-    <n v="24988.27"/>
-    <n v="3511"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="38"/>
-    <n v="23609.75"/>
-    <n v="3350"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="39"/>
-    <n v="22903.45"/>
-    <n v="3208"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="40"/>
-    <n v="22903.45"/>
-    <n v="3208"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="41"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="42"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="43"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="44"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="45"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="11175.6"/>
+    <n v="1572"/>
   </r>
   <r>
     <x v="46"/>
-    <n v="22351.14"/>
-    <n v="3144"/>
+    <n v="10408.700000000001"/>
+    <n v="1645"/>
   </r>
   <r>
     <x v="47"/>
-    <n v="10767.37"/>
-    <n v="2981"/>
+    <n v="9834.5"/>
+    <n v="1481"/>
   </r>
   <r>
     <x v="48"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9664.9"/>
+    <n v="1433"/>
   </r>
   <r>
     <x v="49"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="50"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="51"/>
-    <n v="20266.32"/>
-    <n v="2841"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="52"/>
-    <n v="9826.68"/>
-    <n v="2713"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="53"/>
-    <n v="9252.52"/>
-    <n v="2549"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="54"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="55"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="56"/>
-    <n v="18181.5"/>
-    <n v="2538"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="57"/>
-    <n v="8817.98"/>
-    <n v="2423"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
   </r>
   <r>
     <x v="58"/>
-    <n v="8705.6299999999992"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="9090.7999999999993"/>
+    <n v="1269"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="9034.5"/>
+    <n v="2576"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="8977.2999999999993"/>
+    <n v="2479"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="8977.2999999999993"/>
+    <n v="2479"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="8705.6"/>
     <n v="2393"/>
   </r>
   <r>
-    <x v="59"/>
-    <n v="8508.73"/>
-    <n v="2337"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <n v="8230.32"/>
+    <x v="84"/>
+    <n v="8705.6"/>
+    <n v="2393"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="8253.2999999999993"/>
+    <n v="2368"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="8230.2999999999993"/>
     <n v="2271"/>
   </r>
   <r>
-    <x v="61"/>
-    <n v="15897.52"/>
-    <n v="2242"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="15897.52"/>
-    <n v="2242"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="15544.37"/>
-    <n v="2171"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="15544.37"/>
-    <n v="2171"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="7934.08"/>
+    <x v="87"/>
+    <n v="7934.1"/>
     <n v="2170"/>
   </r>
   <r>
-    <x v="66"/>
-    <n v="7541.17"/>
+    <x v="88"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <n v="7934.1"/>
+    <n v="2170"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <n v="7799.4"/>
+    <n v="2144"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <n v="7550.6"/>
+    <n v="1185"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <n v="7541.2"/>
     <n v="2063"/>
   </r>
   <r>
-    <x v="67"/>
-    <n v="7527.79"/>
+    <x v="98"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="68"/>
-    <n v="7527.79"/>
+    <x v="99"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="69"/>
-    <n v="7527.79"/>
+    <x v="100"/>
+    <n v="7527.8"/>
     <n v="2058"/>
   </r>
   <r>
-    <x v="70"/>
-    <n v="7379.83"/>
+    <x v="101"/>
+    <n v="7527.8"/>
+    <n v="2058"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="71"/>
-    <n v="7379.83"/>
+    <x v="103"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="72"/>
-    <n v="7379.83"/>
+    <x v="104"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="73"/>
-    <n v="7379.83"/>
+    <x v="105"/>
+    <n v="7379.8"/>
     <n v="2031"/>
   </r>
   <r>
-    <x v="74"/>
-    <n v="14165.85"/>
-    <n v="2010"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <n v="7187.14"/>
+    <x v="106"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="76"/>
-    <n v="7187.14"/>
+    <x v="107"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="77"/>
-    <n v="7187.14"/>
+    <x v="108"/>
+    <n v="7187.1"/>
     <n v="1962"/>
   </r>
   <r>
-    <x v="78"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <n v="13812.7"/>
-    <n v="1939"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <n v="13424.33"/>
-    <n v="1907"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <n v="6953.63"/>
+    <x v="109"/>
+    <n v="7122.4"/>
+    <n v="2044"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="6953.6"/>
     <n v="1894"/>
   </r>
   <r>
-    <x v="85"/>
-    <n v="13260.39"/>
-    <n v="1875"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <n v="13260.39"/>
-    <n v="1875"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <n v="13459.55"/>
-    <n v="1868"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <n v="6759.33"/>
+    <x v="111"/>
+    <n v="6806.8"/>
+    <n v="973"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="6759.3"/>
     <n v="1859"/>
   </r>
   <r>
-    <x v="93"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <n v="11175.57"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <n v="9834.5400000000009"/>
-    <n v="1481"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <n v="4959.01"/>
+    <x v="113"/>
+    <n v="6756.2"/>
+    <n v="1835"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <n v="6280.1"/>
+    <n v="1719"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <n v="4959"/>
     <n v="1347"/>
   </r>
   <r>
-    <x v="107"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <n v="9443.9"/>
-    <n v="1340"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <n v="4801.82"/>
-    <n v="1318"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
-  </r>
-  <r>
     <x v="116"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="117"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="118"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="119"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="120"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="121"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="122"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="123"/>
-    <n v="9090.75"/>
-    <n v="1269"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="124"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="125"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
+    <n v="4722"/>
+    <n v="670"/>
   </r>
   <r>
     <x v="126"/>
-    <n v="8737.6"/>
-    <n v="1198"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <n v="7550.56"/>
-    <n v="1185"/>
-  </r>
-  <r>
-    <x v="128"/>
-    <n v="3769.84"/>
-    <n v="996"/>
-  </r>
-  <r>
-    <x v="129"/>
-    <n v="2805.53"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <n v="2633.66"/>
-    <n v="760"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <n v="4721.95"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <x v="134"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="135"/>
+    <x v="127"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
-    <x v="136"/>
+    <x v="128"/>
     <n v="4368.8"/>
     <n v="599"/>
   </r>
   <r>
+    <x v="129"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="4368.8"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <n v="3769.8"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <n v="3444.1"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <n v="2633.7"/>
+    <n v="760"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <n v="2400.9"/>
+    <n v="659"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <n v="2084.8000000000002"/>
+    <n v="303"/>
+  </r>
+  <r>
     <x v="137"/>
-    <n v="2061.7399999999998"/>
-    <n v="588"/>
+    <n v="2084.8000000000002"/>
+    <n v="303"/>
   </r>
   <r>
     <x v="138"/>
-    <n v="1846.66"/>
+    <n v="1846.7"/>
     <n v="520"/>
   </r>
   <r>
     <x v="139"/>
-    <n v="1846.66"/>
+    <n v="1846.7"/>
     <n v="520"/>
   </r>
   <r>
     <x v="140"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="141"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="142"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="143"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="144"/>
-    <n v="1317.95"/>
+    <n v="1317.9"/>
     <n v="376"/>
   </r>
   <r>
     <x v="145"/>
-    <n v="1083.24"/>
+    <n v="1317.9"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="1317.9"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <n v="1083.2"/>
     <n v="341"/>
   </r>
   <r>
-    <x v="146"/>
-    <n v="2084.8200000000002"/>
-    <n v="303"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <n v="2084.8200000000002"/>
-    <n v="303"/>
-  </r>
-  <r>
     <x v="148"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="149"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="150"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="151"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="152"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="153"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="154"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="155"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="158"/>
-    <n v="743.79"/>
+    <n v="743.8"/>
     <n v="212"/>
   </r>
   <r>
     <x v="159"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="160"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="161"/>
-    <n v="574.16"/>
+    <n v="574.20000000000005"/>
     <n v="164"/>
   </r>
   <r>
     <x v="162"/>
-    <n v="427.81"/>
+    <n v="427.8"/>
     <n v="103"/>
   </r>
   <r>
     <x v="163"/>
-    <n v="373.55"/>
+    <n v="373.5"/>
     <n v="93"/>
   </r>
   <r>
@@ -3156,446 +3121,191 @@
   </r>
   <r>
     <x v="166"/>
-    <n v="3.99"/>
+    <n v="4"/>
     <n v="1"/>
   </r>
   <r>
     <x v="167"/>
-    <n v="2.29"/>
-    <n v="1"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11BEA068-D7AA-4A98-8F98-11112D46283F}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Brands">
-  <location ref="A12:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="169">
-        <item x="121"/>
-        <item x="84"/>
-        <item x="74"/>
-        <item x="149"/>
-        <item x="120"/>
-        <item x="141"/>
-        <item x="119"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="32"/>
-        <item x="8"/>
-        <item x="148"/>
+        <item x="67"/>
+        <item x="110"/>
+        <item x="118"/>
+        <item x="153"/>
+        <item x="66"/>
+        <item x="142"/>
+        <item x="68"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="109"/>
+        <item x="152"/>
         <item x="164"/>
-        <item x="85"/>
-        <item x="137"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="147"/>
-        <item x="65"/>
-        <item x="22"/>
-        <item x="146"/>
-        <item x="54"/>
-        <item x="20"/>
-        <item x="104"/>
-        <item x="50"/>
-        <item x="103"/>
-        <item x="67"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="118"/>
-        <item x="101"/>
-        <item x="72"/>
-        <item x="117"/>
-        <item x="83"/>
-        <item x="102"/>
-        <item x="142"/>
-        <item x="139"/>
-        <item x="153"/>
-        <item x="114"/>
-        <item x="10"/>
-        <item x="57"/>
-        <item x="7"/>
-        <item x="115"/>
-        <item x="60"/>
-        <item x="99"/>
-        <item x="163"/>
-        <item x="145"/>
-        <item x="15"/>
-        <item x="116"/>
-        <item x="140"/>
-        <item x="100"/>
-        <item x="152"/>
-        <item x="51"/>
-        <item x="167"/>
-        <item x="53"/>
-        <item x="150"/>
-        <item x="138"/>
-        <item x="52"/>
-        <item x="73"/>
-        <item x="88"/>
-        <item x="86"/>
-        <item x="12"/>
-        <item x="133"/>
-        <item x="107"/>
-        <item x="98"/>
-        <item x="14"/>
-        <item x="30"/>
-        <item x="151"/>
-        <item x="87"/>
-        <item x="1"/>
-        <item x="106"/>
-        <item x="48"/>
+        <item x="19"/>
+        <item x="143"/>
+        <item x="95"/>
         <item x="18"/>
         <item x="136"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="137"/>
+        <item x="64"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="13"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="14"/>
+        <item x="104"/>
+        <item x="65"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="141"/>
+        <item x="139"/>
+        <item x="151"/>
+        <item x="70"/>
+        <item x="6"/>
+        <item x="113"/>
+        <item x="85"/>
+        <item x="71"/>
+        <item x="86"/>
+        <item x="23"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="3"/>
+        <item x="69"/>
+        <item x="140"/>
+        <item x="24"/>
+        <item x="150"/>
+        <item x="25"/>
         <item x="89"/>
+        <item x="148"/>
+        <item x="138"/>
+        <item x="88"/>
+        <item x="105"/>
+        <item x="73"/>
+        <item x="22"/>
+        <item x="72"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="87"/>
+        <item x="149"/>
+        <item x="74"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="130"/>
+        <item x="59"/>
+        <item x="33"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="157"/>
+        <item x="94"/>
+        <item x="4"/>
+        <item x="129"/>
+        <item x="135"/>
+        <item x="112"/>
+        <item x="144"/>
+        <item x="32"/>
+        <item x="160"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="165"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="91"/>
+        <item x="133"/>
+        <item x="81"/>
+        <item x="27"/>
+        <item x="47"/>
+        <item x="92"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="159"/>
+        <item x="31"/>
+        <item x="158"/>
+        <item x="97"/>
+        <item x="154"/>
+        <item x="40"/>
+        <item x="55"/>
+        <item x="155"/>
+        <item x="82"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="41"/>
+        <item x="145"/>
+        <item x="166"/>
+        <item x="38"/>
+        <item x="56"/>
+        <item x="156"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="36"/>
         <item x="37"/>
-        <item x="90"/>
+        <item x="125"/>
         <item x="39"/>
-        <item x="27"/>
-        <item x="154"/>
-        <item x="31"/>
-        <item x="16"/>
+        <item x="124"/>
         <item x="126"/>
-        <item x="111"/>
-        <item x="92"/>
-        <item x="143"/>
-        <item x="28"/>
-        <item x="160"/>
-        <item x="130"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="6"/>
-        <item x="9"/>
+        <item x="50"/>
+        <item x="122"/>
+        <item x="51"/>
+        <item x="83"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="123"/>
+        <item x="127"/>
+        <item x="120"/>
         <item x="42"/>
-        <item x="3"/>
-        <item x="38"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="21"/>
+        <item x="121"/>
+        <item x="96"/>
+        <item x="128"/>
+        <item x="101"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item x="84"/>
+        <item x="161"/>
+        <item x="107"/>
+        <item x="131"/>
+        <item x="103"/>
+        <item x="162"/>
+        <item x="79"/>
+        <item x="99"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="100"/>
         <item x="43"/>
-        <item x="105"/>
-        <item x="59"/>
+        <item x="76"/>
+        <item x="102"/>
         <item x="44"/>
-        <item x="112"/>
-        <item x="13"/>
-        <item x="93"/>
-        <item x="61"/>
-        <item x="159"/>
-        <item x="41"/>
-        <item x="158"/>
-        <item x="66"/>
-        <item x="157"/>
-        <item x="97"/>
-        <item x="79"/>
-        <item x="156"/>
-        <item x="19"/>
-        <item x="55"/>
-        <item x="0"/>
-        <item x="63"/>
-        <item x="129"/>
-        <item x="166"/>
-        <item x="96"/>
-        <item x="80"/>
-        <item x="155"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="64"/>
-        <item x="95"/>
+        <item x="45"/>
+        <item x="75"/>
+        <item x="132"/>
         <item x="108"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="113"/>
-        <item x="109"/>
-        <item x="40"/>
-        <item x="58"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="132"/>
-        <item x="134"/>
-        <item x="110"/>
-        <item x="94"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="125"/>
-        <item x="68"/>
-        <item x="56"/>
-        <item x="77"/>
-        <item x="47"/>
-        <item x="161"/>
-        <item x="76"/>
-        <item x="124"/>
-        <item x="70"/>
-        <item x="162"/>
-        <item x="91"/>
-        <item x="69"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="29"/>
-        <item x="46"/>
-        <item x="36"/>
-        <item x="71"/>
-        <item x="45"/>
-        <item x="62"/>
-        <item x="78"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="144"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
-        <item n="All Other Brands" sd="0" x="5"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transactions" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="brands">
-  <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="170">
-        <item x="121"/>
-        <item x="84"/>
-        <item x="74"/>
-        <item x="149"/>
-        <item x="120"/>
-        <item x="141"/>
-        <item x="119"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="32"/>
-        <item x="8"/>
-        <item x="148"/>
-        <item x="164"/>
-        <item x="85"/>
-        <item x="137"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="147"/>
-        <item x="65"/>
-        <item x="22"/>
         <item x="146"/>
-        <item x="54"/>
-        <item x="20"/>
-        <item x="104"/>
-        <item x="50"/>
-        <item x="103"/>
-        <item x="67"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="118"/>
-        <item x="101"/>
-        <item x="72"/>
-        <item x="117"/>
-        <item x="83"/>
-        <item x="102"/>
-        <item x="142"/>
-        <item x="139"/>
-        <item x="153"/>
-        <item x="114"/>
-        <item x="10"/>
-        <item x="57"/>
-        <item x="7"/>
-        <item x="115"/>
-        <item x="60"/>
-        <item x="99"/>
-        <item x="163"/>
-        <item x="145"/>
-        <item x="15"/>
-        <item x="116"/>
-        <item x="140"/>
-        <item x="100"/>
-        <item x="152"/>
-        <item x="51"/>
         <item x="167"/>
-        <item x="53"/>
-        <item x="150"/>
-        <item x="138"/>
-        <item x="52"/>
-        <item x="73"/>
-        <item x="88"/>
-        <item x="86"/>
-        <item x="12"/>
-        <item x="133"/>
-        <item x="107"/>
-        <item x="98"/>
-        <item x="14"/>
-        <item x="30"/>
-        <item x="151"/>
-        <item x="87"/>
-        <item x="1"/>
-        <item x="106"/>
-        <item x="48"/>
-        <item x="18"/>
-        <item x="136"/>
-        <item x="89"/>
-        <item x="37"/>
-        <item x="90"/>
-        <item x="39"/>
-        <item x="27"/>
-        <item x="154"/>
-        <item x="31"/>
-        <item x="16"/>
-        <item x="126"/>
-        <item x="111"/>
-        <item x="92"/>
-        <item x="143"/>
-        <item x="28"/>
-        <item x="160"/>
-        <item x="130"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="42"/>
-        <item x="3"/>
-        <item x="38"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="105"/>
-        <item x="59"/>
-        <item x="44"/>
-        <item x="112"/>
-        <item x="13"/>
-        <item x="93"/>
-        <item x="61"/>
-        <item x="159"/>
-        <item x="41"/>
-        <item x="158"/>
-        <item x="66"/>
-        <item x="157"/>
-        <item x="97"/>
-        <item x="79"/>
-        <item x="156"/>
-        <item x="19"/>
-        <item x="55"/>
-        <item x="0"/>
-        <item x="63"/>
-        <item x="129"/>
-        <item x="166"/>
-        <item x="96"/>
-        <item x="80"/>
-        <item x="155"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="64"/>
-        <item x="95"/>
-        <item x="108"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="113"/>
-        <item x="109"/>
-        <item x="40"/>
-        <item x="58"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="132"/>
-        <item x="134"/>
-        <item x="110"/>
-        <item x="94"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="125"/>
-        <item x="68"/>
-        <item x="56"/>
-        <item x="77"/>
-        <item x="47"/>
-        <item x="161"/>
-        <item x="76"/>
-        <item x="124"/>
-        <item x="70"/>
-        <item x="162"/>
-        <item x="91"/>
-        <item x="69"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="29"/>
-        <item x="46"/>
-        <item x="36"/>
-        <item x="71"/>
-        <item x="45"/>
-        <item x="62"/>
-        <item x="78"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="144"/>
-        <item x="168"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3613,11 +3323,11 @@
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="7">
         <item n="All Other Brands" sd="0" x="5"/>
-        <item sd="0" x="1"/>
         <item sd="0" x="0"/>
         <item sd="0" x="4"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3643,16 +3353,16 @@
       <x v="1"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -3663,6 +3373,259 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of spend" fld="1" baseField="3" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E481F3AD-C80A-499C-9466-715E761E9898}" name="PivotTable7" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField name="Transactions Group" axis="axisRow" showAll="0" sortType="descending">
+      <items count="168">
+        <item x="67"/>
+        <item x="110"/>
+        <item x="118"/>
+        <item x="153"/>
+        <item x="66"/>
+        <item x="142"/>
+        <item x="68"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="109"/>
+        <item x="152"/>
+        <item x="164"/>
+        <item x="19"/>
+        <item x="143"/>
+        <item x="95"/>
+        <item x="18"/>
+        <item x="136"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="137"/>
+        <item x="64"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="13"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="14"/>
+        <item x="104"/>
+        <item x="65"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="141"/>
+        <item x="139"/>
+        <item x="151"/>
+        <item x="70"/>
+        <item x="6"/>
+        <item x="113"/>
+        <item x="85"/>
+        <item x="71"/>
+        <item x="86"/>
+        <item x="23"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="3"/>
+        <item x="69"/>
+        <item x="140"/>
+        <item x="24"/>
+        <item x="150"/>
+        <item x="25"/>
+        <item x="89"/>
+        <item x="148"/>
+        <item x="138"/>
+        <item x="88"/>
+        <item x="105"/>
+        <item x="73"/>
+        <item x="22"/>
+        <item x="72"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="87"/>
+        <item x="149"/>
+        <item x="74"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="130"/>
+        <item x="59"/>
+        <item x="33"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="157"/>
+        <item x="94"/>
+        <item x="4"/>
+        <item x="129"/>
+        <item x="135"/>
+        <item x="112"/>
+        <item x="144"/>
+        <item x="32"/>
+        <item x="160"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="165"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="91"/>
+        <item x="133"/>
+        <item x="81"/>
+        <item x="27"/>
+        <item x="47"/>
+        <item x="92"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="159"/>
+        <item x="31"/>
+        <item x="158"/>
+        <item x="97"/>
+        <item x="154"/>
+        <item x="40"/>
+        <item x="55"/>
+        <item x="155"/>
+        <item x="82"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="41"/>
+        <item x="145"/>
+        <item x="166"/>
+        <item x="38"/>
+        <item x="56"/>
+        <item x="156"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="125"/>
+        <item x="39"/>
+        <item x="124"/>
+        <item x="126"/>
+        <item x="50"/>
+        <item x="122"/>
+        <item x="51"/>
+        <item x="83"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="123"/>
+        <item x="127"/>
+        <item x="120"/>
+        <item x="42"/>
+        <item x="121"/>
+        <item x="96"/>
+        <item x="128"/>
+        <item x="101"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item x="84"/>
+        <item x="161"/>
+        <item x="107"/>
+        <item x="131"/>
+        <item x="103"/>
+        <item x="162"/>
+        <item x="79"/>
+        <item x="99"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="100"/>
+        <item x="43"/>
+        <item x="76"/>
+        <item x="102"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="75"/>
+        <item x="132"/>
+        <item x="108"/>
+        <item x="146"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item n="All Other Brands" sd="0" x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of transactions" fld="2" baseField="3" baseItem="4"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3976,30 +3939,29 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3">
-        <v>5131198.3800000073</v>
+        <v>1202629.1000000015</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4007,39 +3969,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>197337.68</v>
+        <v>20040.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>189181.48</v>
+        <v>19390.599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>178692.88</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
-        <v>78870.86</v>
+        <v>18555.400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>70858.880000000005</v>
+        <v>18362.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4047,63 +4009,71 @@
         <v>168</v>
       </c>
       <c r="B9" s="3">
-        <v>5846140.1600000076</v>
-      </c>
+        <v>1297878.6000000015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" s="3">
-        <v>892514</v>
+        <v>214325</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>49051</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>35937</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>26958</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
-        <v>19901</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3">
-        <v>16579</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4111,7 +4081,7 @@
         <v>168</v>
       </c>
       <c r="B19" s="3">
-        <v>1040940</v>
+        <v>233476</v>
       </c>
     </row>
   </sheetData>
@@ -4121,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61679EA6-20AF-45F7-9BB5-930A3F7103FD}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C169"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4134,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4145,1517 +4115,1517 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2930282.42</v>
+        <v>33452</v>
       </c>
       <c r="C2">
-        <v>502236</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>178692.88</v>
+        <v>20040.8</v>
       </c>
       <c r="C3">
-        <v>49051</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>197337.68</v>
+        <v>19390.599999999999</v>
       </c>
       <c r="C4">
-        <v>35937</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>189181.48</v>
+        <v>18900</v>
       </c>
       <c r="C5">
-        <v>26958</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>78870.86</v>
+        <v>18555.400000000001</v>
       </c>
       <c r="C6">
-        <v>19901</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>56050.44</v>
+        <v>18362.7</v>
       </c>
       <c r="C7">
-        <v>16579</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>61157.05</v>
+        <v>18068</v>
       </c>
       <c r="C8">
-        <v>16250</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>48321.46</v>
+        <v>17429.599999999999</v>
       </c>
       <c r="C9">
-        <v>14525</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>42152.79</v>
+        <v>17024.8</v>
       </c>
       <c r="C10">
-        <v>12615</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>70858.880000000005</v>
+        <v>13022.2</v>
       </c>
       <c r="C11">
-        <v>11352</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>44007.29</v>
+        <v>11750.2</v>
       </c>
       <c r="C12">
-        <v>9608</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B13">
-        <v>54146.18</v>
+        <v>11339.5</v>
       </c>
       <c r="C13">
-        <v>7628</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B14">
-        <v>53838.2</v>
+        <v>11175.6</v>
       </c>
       <c r="C14">
-        <v>7472</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B15">
-        <v>45453.75</v>
+        <v>11175.6</v>
       </c>
       <c r="C15">
-        <v>6345</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B16">
-        <v>42379.3</v>
+        <v>11175.6</v>
       </c>
       <c r="C16">
-        <v>6202</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B17">
-        <v>34797.56</v>
+        <v>11175.6</v>
       </c>
       <c r="C17">
-        <v>5923</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B18">
-        <v>34452.92</v>
+        <v>11175.6</v>
       </c>
       <c r="C18">
-        <v>5845</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B19">
-        <v>41238.94</v>
+        <v>11175.6</v>
       </c>
       <c r="C19">
-        <v>5824</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B20">
-        <v>40532.639999999999</v>
+        <v>11175.6</v>
       </c>
       <c r="C20">
-        <v>5682</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B21">
-        <v>19100.18</v>
+        <v>11175.6</v>
       </c>
       <c r="C21">
-        <v>5293</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B22">
-        <v>36385.339999999997</v>
+        <v>11175.6</v>
       </c>
       <c r="C22">
-        <v>5179</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B23">
-        <v>18203.75</v>
+        <v>11175.6</v>
       </c>
       <c r="C23">
-        <v>5030</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>30651.94</v>
+        <v>11175.6</v>
       </c>
       <c r="C24">
-        <v>4771</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25">
-        <v>33053.65</v>
+        <v>11175.6</v>
       </c>
       <c r="C25">
-        <v>4690</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B26">
-        <v>32215.21</v>
+        <v>11175.6</v>
       </c>
       <c r="C26">
-        <v>4570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>16168.49</v>
+        <v>11175.6</v>
       </c>
       <c r="C27">
-        <v>4565</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>16442.810000000001</v>
+        <v>11175.6</v>
       </c>
       <c r="C28">
-        <v>4507</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="B29">
-        <v>16442.810000000001</v>
+        <v>11175.6</v>
       </c>
       <c r="C29">
-        <v>4507</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B30">
-        <v>31441.89</v>
+        <v>11175.6</v>
       </c>
       <c r="C30">
-        <v>4413</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B31">
-        <v>15799.37</v>
+        <v>11175.6</v>
       </c>
       <c r="C31">
-        <v>4328</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B32">
-        <v>15695.87</v>
+        <v>11175.6</v>
       </c>
       <c r="C32">
-        <v>4299</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B33">
-        <v>15494.61</v>
+        <v>11175.6</v>
       </c>
       <c r="C33">
-        <v>4247</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B34">
-        <v>23084.66</v>
+        <v>11175.6</v>
       </c>
       <c r="C34">
-        <v>4204</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <v>29357.07</v>
+        <v>11175.6</v>
       </c>
       <c r="C35">
-        <v>4110</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B36">
-        <v>14182.11</v>
+        <v>11175.6</v>
       </c>
       <c r="C36">
-        <v>3886</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B37">
-        <v>27625.4</v>
+        <v>11175.6</v>
       </c>
       <c r="C37">
-        <v>3878</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B38">
-        <v>27272.25</v>
+        <v>11175.6</v>
       </c>
       <c r="C38">
-        <v>3807</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B39">
-        <v>24988.27</v>
+        <v>11175.6</v>
       </c>
       <c r="C39">
-        <v>3511</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B40">
-        <v>23609.75</v>
+        <v>11175.6</v>
       </c>
       <c r="C40">
-        <v>3350</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B41">
-        <v>22903.45</v>
+        <v>11175.6</v>
       </c>
       <c r="C41">
-        <v>3208</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B42">
-        <v>22903.45</v>
+        <v>11175.6</v>
       </c>
       <c r="C42">
-        <v>3208</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B43">
-        <v>22351.14</v>
+        <v>11175.6</v>
       </c>
       <c r="C43">
-        <v>3144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44">
-        <v>22351.14</v>
+        <v>11175.6</v>
       </c>
       <c r="C44">
-        <v>3144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B45">
-        <v>22351.14</v>
+        <v>11175.6</v>
       </c>
       <c r="C45">
-        <v>3144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46">
-        <v>22351.14</v>
+        <v>11175.6</v>
       </c>
       <c r="C46">
-        <v>3144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B47">
-        <v>22351.14</v>
+        <v>11175.6</v>
       </c>
       <c r="C47">
-        <v>3144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>22351.14</v>
+        <v>10408.700000000001</v>
       </c>
       <c r="C48">
-        <v>3144</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>10767.37</v>
+        <v>9834.5</v>
       </c>
       <c r="C49">
-        <v>2981</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B50">
-        <v>20266.32</v>
+        <v>9664.9</v>
       </c>
       <c r="C50">
-        <v>2841</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B51">
-        <v>20266.32</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C51">
-        <v>2841</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B52">
-        <v>20266.32</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C52">
-        <v>2841</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53">
-        <v>20266.32</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C53">
-        <v>2841</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B54">
-        <v>9826.68</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C54">
-        <v>2713</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B55">
-        <v>9252.52</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C55">
-        <v>2549</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B56">
-        <v>18181.5</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C56">
-        <v>2538</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B57">
-        <v>18181.5</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C57">
-        <v>2538</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B58">
-        <v>18181.5</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C58">
-        <v>2538</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B59">
-        <v>8817.98</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C59">
-        <v>2423</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B60">
-        <v>8705.6299999999992</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C60">
-        <v>2393</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B61">
-        <v>8508.73</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C61">
-        <v>2337</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B62">
-        <v>8230.32</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C62">
-        <v>2271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>15897.52</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C63">
-        <v>2242</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>15897.52</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C64">
-        <v>2242</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B65">
-        <v>15544.37</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C65">
-        <v>2171</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66">
-        <v>15544.37</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C66">
-        <v>2171</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B67">
-        <v>7934.08</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C67">
-        <v>2170</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="B68">
-        <v>7541.17</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C68">
-        <v>2063</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="B69">
-        <v>7527.79</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C69">
-        <v>2058</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>7527.79</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C70">
-        <v>2058</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B71">
-        <v>7527.79</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C71">
-        <v>2058</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B72">
-        <v>7379.83</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C72">
-        <v>2031</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B73">
-        <v>7379.83</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C73">
-        <v>2031</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B74">
-        <v>7379.83</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C74">
-        <v>2031</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="B75">
-        <v>7379.83</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C75">
-        <v>2031</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B76">
-        <v>14165.85</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C76">
-        <v>2010</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B77">
-        <v>7187.14</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C77">
-        <v>1962</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="B78">
-        <v>7187.14</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C78">
-        <v>1962</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="B79">
-        <v>7187.14</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C79">
-        <v>1962</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B80">
-        <v>13812.7</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C80">
-        <v>1939</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B81">
-        <v>13812.7</v>
+        <v>9090.7999999999993</v>
       </c>
       <c r="C81">
-        <v>1939</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>13812.7</v>
+        <v>9034.5</v>
       </c>
       <c r="C82">
-        <v>1939</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="B83">
-        <v>13812.7</v>
+        <v>8977.2999999999993</v>
       </c>
       <c r="C83">
-        <v>1939</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B84">
-        <v>13812.7</v>
+        <v>8977.2999999999993</v>
       </c>
       <c r="C84">
-        <v>1939</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B85">
-        <v>13424.33</v>
+        <v>8705.6</v>
       </c>
       <c r="C85">
-        <v>1907</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>6953.63</v>
+        <v>8705.6</v>
       </c>
       <c r="C86">
-        <v>1894</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B87">
-        <v>13260.39</v>
+        <v>8253.2999999999993</v>
       </c>
       <c r="C87">
-        <v>1875</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>13260.39</v>
+        <v>8230.2999999999993</v>
       </c>
       <c r="C88">
-        <v>1875</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="B89">
-        <v>13459.55</v>
+        <v>7934.1</v>
       </c>
       <c r="C89">
-        <v>1868</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>13459.55</v>
+        <v>7934.1</v>
       </c>
       <c r="C90">
-        <v>1868</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>13459.55</v>
+        <v>7934.1</v>
       </c>
       <c r="C91">
-        <v>1868</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>13459.55</v>
+        <v>7934.1</v>
       </c>
       <c r="C92">
-        <v>1868</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>13459.55</v>
+        <v>7934.1</v>
       </c>
       <c r="C93">
-        <v>1868</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B94">
-        <v>6759.33</v>
+        <v>7934.1</v>
       </c>
       <c r="C94">
-        <v>1859</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>11175.57</v>
+        <v>7934.1</v>
       </c>
       <c r="C95">
-        <v>1572</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B96">
-        <v>11175.57</v>
+        <v>7934.1</v>
       </c>
       <c r="C96">
-        <v>1572</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>11175.57</v>
+        <v>7799.4</v>
       </c>
       <c r="C97">
-        <v>1572</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B98">
-        <v>11175.57</v>
+        <v>7550.6</v>
       </c>
       <c r="C98">
-        <v>1572</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>11175.57</v>
+        <v>7541.2</v>
       </c>
       <c r="C99">
-        <v>1572</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="B100">
-        <v>11175.57</v>
+        <v>7527.8</v>
       </c>
       <c r="C100">
-        <v>1572</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B101">
-        <v>11175.57</v>
+        <v>7527.8</v>
       </c>
       <c r="C101">
-        <v>1572</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B102">
-        <v>11175.57</v>
+        <v>7527.8</v>
       </c>
       <c r="C102">
-        <v>1572</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B103">
-        <v>11175.57</v>
+        <v>7527.8</v>
       </c>
       <c r="C103">
-        <v>1572</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B104">
-        <v>11175.57</v>
+        <v>7379.8</v>
       </c>
       <c r="C104">
-        <v>1572</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="B105">
-        <v>11175.57</v>
+        <v>7379.8</v>
       </c>
       <c r="C105">
-        <v>1572</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="B106">
-        <v>11175.57</v>
+        <v>7379.8</v>
       </c>
       <c r="C106">
-        <v>1572</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>9834.5400000000009</v>
+        <v>7379.8</v>
       </c>
       <c r="C107">
-        <v>1481</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B108">
-        <v>4959.01</v>
+        <v>7187.1</v>
       </c>
       <c r="C108">
-        <v>1347</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B109">
-        <v>9443.9</v>
+        <v>7187.1</v>
       </c>
       <c r="C109">
-        <v>1340</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B110">
-        <v>9443.9</v>
+        <v>7187.1</v>
       </c>
       <c r="C110">
-        <v>1340</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B111">
-        <v>9443.9</v>
+        <v>7122.4</v>
       </c>
       <c r="C111">
-        <v>1340</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="B112">
-        <v>9443.9</v>
+        <v>6953.6</v>
       </c>
       <c r="C112">
-        <v>1340</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B113">
-        <v>4801.82</v>
+        <v>6806.8</v>
       </c>
       <c r="C113">
-        <v>1318</v>
+        <v>973</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B114">
-        <v>9090.75</v>
+        <v>6759.3</v>
       </c>
       <c r="C114">
-        <v>1269</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B115">
-        <v>9090.75</v>
+        <v>6756.2</v>
       </c>
       <c r="C115">
-        <v>1269</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>9090.75</v>
+        <v>6280.1</v>
       </c>
       <c r="C116">
-        <v>1269</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>9090.75</v>
+        <v>4959</v>
       </c>
       <c r="C117">
-        <v>1269</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B118">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C118">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C119">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B120">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C120">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B121">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C121">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B122">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C122">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B123">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C123">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B124">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C124">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B125">
-        <v>9090.75</v>
+        <v>4722</v>
       </c>
       <c r="C125">
-        <v>1269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B126">
-        <v>8737.6</v>
+        <v>4722</v>
       </c>
       <c r="C126">
-        <v>1198</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="B127">
-        <v>8737.6</v>
+        <v>4722</v>
       </c>
       <c r="C127">
-        <v>1198</v>
+        <v>670</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B128">
-        <v>8737.6</v>
+        <v>4368.8</v>
       </c>
       <c r="C128">
-        <v>1198</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B129">
-        <v>7550.56</v>
+        <v>4368.8</v>
       </c>
       <c r="C129">
-        <v>1185</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B130">
-        <v>3769.84</v>
+        <v>4368.8</v>
       </c>
       <c r="C130">
-        <v>996</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="B131">
-        <v>2805.53</v>
+        <v>4368.8</v>
       </c>
       <c r="C131">
-        <v>800</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="B132">
-        <v>2633.66</v>
+        <v>4368.8</v>
       </c>
       <c r="C132">
-        <v>760</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B133">
-        <v>4721.95</v>
+        <v>4368.8</v>
       </c>
       <c r="C133">
-        <v>670</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B134">
-        <v>4721.95</v>
+        <v>3769.8</v>
       </c>
       <c r="C134">
-        <v>670</v>
+        <v>996</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="B135">
-        <v>4721.95</v>
+        <v>3444.1</v>
       </c>
       <c r="C135">
-        <v>670</v>
+        <v>968</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="B136">
-        <v>4368.8</v>
+        <v>2633.7</v>
       </c>
       <c r="C136">
-        <v>599</v>
+        <v>760</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B137">
-        <v>4368.8</v>
+        <v>2400.9</v>
       </c>
       <c r="C137">
-        <v>599</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B138">
-        <v>4368.8</v>
+        <v>2084.8000000000002</v>
       </c>
       <c r="C138">
-        <v>599</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B139">
-        <v>2061.7399999999998</v>
+        <v>2084.8000000000002</v>
       </c>
       <c r="C139">
-        <v>588</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -5663,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="B140">
-        <v>1846.66</v>
+        <v>1846.7</v>
       </c>
       <c r="C140">
         <v>520</v>
@@ -5674,7 +5644,7 @@
         <v>52</v>
       </c>
       <c r="B141">
-        <v>1846.66</v>
+        <v>1846.7</v>
       </c>
       <c r="C141">
         <v>520</v>
@@ -5685,7 +5655,7 @@
         <v>62</v>
       </c>
       <c r="B142">
-        <v>1317.95</v>
+        <v>1317.9</v>
       </c>
       <c r="C142">
         <v>376</v>
@@ -5693,10 +5663,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B143">
-        <v>1317.95</v>
+        <v>1317.9</v>
       </c>
       <c r="C143">
         <v>376</v>
@@ -5704,10 +5674,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B144">
-        <v>1317.95</v>
+        <v>1317.9</v>
       </c>
       <c r="C144">
         <v>376</v>
@@ -5715,10 +5685,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B145">
-        <v>1317.95</v>
+        <v>1317.9</v>
       </c>
       <c r="C145">
         <v>376</v>
@@ -5726,10 +5696,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B146">
-        <v>1317.95</v>
+        <v>1317.9</v>
       </c>
       <c r="C146">
         <v>376</v>
@@ -5737,43 +5707,43 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B147">
-        <v>1083.24</v>
+        <v>1317.9</v>
       </c>
       <c r="C147">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B148">
-        <v>2084.8200000000002</v>
+        <v>1317.9</v>
       </c>
       <c r="C148">
-        <v>303</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="B149">
-        <v>2084.8200000000002</v>
+        <v>1083.2</v>
       </c>
       <c r="C149">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B150">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C150">
         <v>212</v>
@@ -5781,10 +5751,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B151">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C151">
         <v>212</v>
@@ -5792,10 +5762,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C152">
         <v>212</v>
@@ -5803,10 +5773,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B153">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C153">
         <v>212</v>
@@ -5814,10 +5784,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B154">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C154">
         <v>212</v>
@@ -5825,10 +5795,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B155">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C155">
         <v>212</v>
@@ -5836,10 +5806,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B156">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C156">
         <v>212</v>
@@ -5847,10 +5817,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B157">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C157">
         <v>212</v>
@@ -5858,10 +5828,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B158">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C158">
         <v>212</v>
@@ -5869,10 +5839,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B159">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C159">
         <v>212</v>
@@ -5883,7 +5853,7 @@
         <v>69</v>
       </c>
       <c r="B160">
-        <v>743.79</v>
+        <v>743.8</v>
       </c>
       <c r="C160">
         <v>212</v>
@@ -5894,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="B161">
-        <v>574.16</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="C161">
         <v>164</v>
@@ -5905,7 +5875,7 @@
         <v>76</v>
       </c>
       <c r="B162">
-        <v>574.16</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="C162">
         <v>164</v>
@@ -5916,7 +5886,7 @@
         <v>79</v>
       </c>
       <c r="B163">
-        <v>574.16</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="C163">
         <v>164</v>
@@ -5927,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="B164">
-        <v>427.81</v>
+        <v>427.8</v>
       </c>
       <c r="C164">
         <v>103</v>
@@ -5938,7 +5908,7 @@
         <v>49</v>
       </c>
       <c r="B165">
-        <v>373.55</v>
+        <v>373.5</v>
       </c>
       <c r="C165">
         <v>93</v>
@@ -5971,20 +5941,9 @@
         <v>48</v>
       </c>
       <c r="B168">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169">
-        <v>2.29</v>
-      </c>
-      <c r="C169">
         <v>1</v>
       </c>
     </row>

--- a/Supplemental/Spend and Transactions Pivot Tables.xlsx
+++ b/Supplemental/Spend and Transactions Pivot Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ccf779dc7355a40/Documents/Python_Projects/Fetch Rewards Assignment - Data Analyst/Fetch-Rewards-Coding-Assignment/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86EC1BD-2F7B-45B2-98A2-291D52C1CC98}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{92D6FA5A-A11B-4A62-9B20-20D9E8BD7FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FDAEE5A-4891-4D31-9A77-42D078E86E6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E62EB5EF-B05B-4D17-9C50-041E0ECA9077}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId4"/>
-    <pivotCache cacheId="62" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -586,9 +586,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>spend</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
   </si>
   <si>
     <t>Sum of transactions</t>
+  </si>
+  <si>
+    <t>Brands</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3133,260 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CAD7A33-637D-4291-947A-9D8FAF409F14}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Brands">
+  <location ref="D2:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField name="Transactions Group" axis="axisRow" showAll="0" sortType="descending">
+      <items count="168">
+        <item x="67"/>
+        <item x="110"/>
+        <item x="118"/>
+        <item x="153"/>
+        <item x="66"/>
+        <item x="142"/>
+        <item x="68"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="109"/>
+        <item x="152"/>
+        <item x="164"/>
+        <item x="19"/>
+        <item x="143"/>
+        <item x="95"/>
+        <item x="18"/>
+        <item x="136"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="137"/>
+        <item x="64"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="13"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="14"/>
+        <item x="104"/>
+        <item x="65"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="141"/>
+        <item x="139"/>
+        <item x="151"/>
+        <item x="70"/>
+        <item x="6"/>
+        <item x="113"/>
+        <item x="85"/>
+        <item x="71"/>
+        <item x="86"/>
+        <item x="23"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="3"/>
+        <item x="69"/>
+        <item x="140"/>
+        <item x="24"/>
+        <item x="150"/>
+        <item x="25"/>
+        <item x="89"/>
+        <item x="148"/>
+        <item x="138"/>
+        <item x="88"/>
+        <item x="105"/>
+        <item x="73"/>
+        <item x="22"/>
+        <item x="72"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="87"/>
+        <item x="149"/>
+        <item x="74"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="130"/>
+        <item x="59"/>
+        <item x="33"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="157"/>
+        <item x="94"/>
+        <item x="4"/>
+        <item x="129"/>
+        <item x="135"/>
+        <item x="112"/>
+        <item x="144"/>
+        <item x="32"/>
+        <item x="160"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="165"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="91"/>
+        <item x="133"/>
+        <item x="81"/>
+        <item x="27"/>
+        <item x="47"/>
+        <item x="92"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="159"/>
+        <item x="31"/>
+        <item x="158"/>
+        <item x="97"/>
+        <item x="154"/>
+        <item x="40"/>
+        <item x="55"/>
+        <item x="155"/>
+        <item x="82"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="41"/>
+        <item x="145"/>
+        <item x="166"/>
+        <item x="38"/>
+        <item x="56"/>
+        <item x="156"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="125"/>
+        <item x="39"/>
+        <item x="124"/>
+        <item x="126"/>
+        <item x="50"/>
+        <item x="122"/>
+        <item x="51"/>
+        <item x="83"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="123"/>
+        <item x="127"/>
+        <item x="120"/>
+        <item x="42"/>
+        <item x="121"/>
+        <item x="96"/>
+        <item x="128"/>
+        <item x="101"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item x="84"/>
+        <item x="161"/>
+        <item x="107"/>
+        <item x="131"/>
+        <item x="103"/>
+        <item x="162"/>
+        <item x="79"/>
+        <item x="99"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="100"/>
+        <item x="43"/>
+        <item x="76"/>
+        <item x="102"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="75"/>
+        <item x="132"/>
+        <item x="108"/>
+        <item x="146"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item n="All Other Brands" sd="0" x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of transactions" fld="2" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28579D78-35C8-41D7-A804-2B95C5CD60F7}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Brands">
   <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -3373,259 +3626,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of spend" fld="1" baseField="3" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E481F3AD-C80A-499C-9466-715E761E9898}" name="PivotTable7" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField name="Transactions Group" axis="axisRow" showAll="0" sortType="descending">
-      <items count="168">
-        <item x="67"/>
-        <item x="110"/>
-        <item x="118"/>
-        <item x="153"/>
-        <item x="66"/>
-        <item x="142"/>
-        <item x="68"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="109"/>
-        <item x="152"/>
-        <item x="164"/>
-        <item x="19"/>
-        <item x="143"/>
-        <item x="95"/>
-        <item x="18"/>
-        <item x="136"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="137"/>
-        <item x="64"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="98"/>
-        <item x="13"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="14"/>
-        <item x="104"/>
-        <item x="65"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="141"/>
-        <item x="139"/>
-        <item x="151"/>
-        <item x="70"/>
-        <item x="6"/>
-        <item x="113"/>
-        <item x="85"/>
-        <item x="71"/>
-        <item x="86"/>
-        <item x="23"/>
-        <item x="163"/>
-        <item x="147"/>
-        <item x="3"/>
-        <item x="69"/>
-        <item x="140"/>
-        <item x="24"/>
-        <item x="150"/>
-        <item x="25"/>
-        <item x="89"/>
-        <item x="148"/>
-        <item x="138"/>
-        <item x="88"/>
-        <item x="105"/>
-        <item x="73"/>
-        <item x="22"/>
-        <item x="72"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="21"/>
-        <item x="9"/>
-        <item x="87"/>
-        <item x="149"/>
-        <item x="74"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="130"/>
-        <item x="59"/>
-        <item x="33"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="93"/>
-        <item x="157"/>
-        <item x="94"/>
-        <item x="4"/>
-        <item x="129"/>
-        <item x="135"/>
-        <item x="112"/>
-        <item x="144"/>
-        <item x="32"/>
-        <item x="160"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="165"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="91"/>
-        <item x="133"/>
-        <item x="81"/>
-        <item x="27"/>
-        <item x="47"/>
-        <item x="92"/>
-        <item x="28"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="159"/>
-        <item x="31"/>
-        <item x="158"/>
-        <item x="97"/>
-        <item x="154"/>
-        <item x="40"/>
-        <item x="55"/>
-        <item x="155"/>
-        <item x="82"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="41"/>
-        <item x="145"/>
-        <item x="166"/>
-        <item x="38"/>
-        <item x="56"/>
-        <item x="156"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="125"/>
-        <item x="39"/>
-        <item x="124"/>
-        <item x="126"/>
-        <item x="50"/>
-        <item x="122"/>
-        <item x="51"/>
-        <item x="83"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="123"/>
-        <item x="127"/>
-        <item x="120"/>
-        <item x="42"/>
-        <item x="121"/>
-        <item x="96"/>
-        <item x="128"/>
-        <item x="101"/>
-        <item x="49"/>
-        <item x="106"/>
-        <item x="84"/>
-        <item x="161"/>
-        <item x="107"/>
-        <item x="131"/>
-        <item x="103"/>
-        <item x="162"/>
-        <item x="79"/>
-        <item x="99"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="100"/>
-        <item x="43"/>
-        <item x="76"/>
-        <item x="102"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="75"/>
-        <item x="132"/>
-        <item x="108"/>
-        <item x="146"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
-        <item n="All Other Brands" sd="0" x="5"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transactions" fld="2" baseField="3" baseItem="4"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3936,151 +3936,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5E745B-90FC-4449-ADA8-4EF1377288C1}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="B3" s="3">
         <v>1202629.1000000015</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="3">
+        <v>214325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>20040.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>19390.599999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>18900</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>18555.400000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>18362.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B9" s="3">
         <v>1297878.6000000015</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="3">
-        <v>214325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>4111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="3">
+      <c r="E9" s="3">
         <v>233476</v>
       </c>
     </row>
@@ -4104,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
